--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1418.282905444978</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.711605245253147</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>7.742404803441728</v>
+      </c>
+      <c r="D2">
         <v>61.55084346190231</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>25.13946749937387</v>
+      </c>
+      <c r="F2">
         <v>19.34658793973493</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>110.3855069371835</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>6.219643218478722</v>
       </c>
-      <c r="H2" t="n">
-        <v>1617.49709224753</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1648.667359305093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1336.567267846492</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.181457665518717</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>9.867770827915926</v>
+      </c>
+      <c r="D3">
         <v>75.61960768176571</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>9.612149337995897</v>
+      </c>
+      <c r="F3">
         <v>21.31403756072493</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>97.88903445372877</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>15.89464378055673</v>
       </c>
-      <c r="H3" t="n">
-        <v>1549.466048988786</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1566.764511489179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1249.216069034318</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.711605245253147</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>7.742404803441728</v>
+      </c>
+      <c r="D4">
         <v>37.80980384088286</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>8.872753235073134</v>
+      </c>
+      <c r="F4">
         <v>16.94192729185828</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>93.72354362591051</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>13.82142937439716</v>
       </c>
-      <c r="H4" t="n">
-        <v>1413.22437841262</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1428.127931205882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1449.278492120265</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.845848793900452</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>8.349652239005785</v>
+      </c>
+      <c r="D5">
         <v>50.99927029700475</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>15.52731816137798</v>
+      </c>
+      <c r="F5">
         <v>20.4396155069516</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>77.06158031463754</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>11.74821496823759</v>
       </c>
-      <c r="H5" t="n">
-        <v>1611.373022000997</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1633.404143607481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1347.838390273869</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.912970568224105</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>8.653275956787812</v>
+      </c>
+      <c r="D6">
         <v>62.43014122564377</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F6">
         <v>21.86055134433326</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>79.14432572854665</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>10.36607203079787</v>
       </c>
-      <c r="H6" t="n">
-        <v>1523.552451171415</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1543.601886412588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1445.521451311139</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.980092342547758</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>8.95689967456984</v>
+      </c>
+      <c r="D7">
         <v>72.10241662679987</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F7">
         <v>22.95357891154993</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>74.97883490072842</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>8.983929093358153</v>
       </c>
-      <c r="H7" t="n">
-        <v>1626.520303186123</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1646.806240370755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1477.456298188708</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D8">
         <v>70.34382109931691</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>14.78792205845522</v>
+      </c>
+      <c r="F8">
         <v>21.42334031744659</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>64.5651078311828</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>4.837500281039007</v>
       </c>
-      <c r="H8" t="n">
-        <v>1640.438355624432</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1661.611830156264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1652.158695813057</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.678044358091321</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>7.590592944550714</v>
+      </c>
+      <c r="D9">
         <v>61.55084346190231</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>23.66067529352836</v>
+      </c>
+      <c r="F9">
         <v>19.01867966956992</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>68.73059865900105</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>7.601786155918439</v>
       </c>
-      <c r="H9" t="n">
-        <v>1810.73864811754</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1840.311871997528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1793.986986357554</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.047214116871412</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>9.260523392351869</v>
+      </c>
+      <c r="D10">
         <v>56.27505687945352</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>44.36376617536567</v>
+      </c>
+      <c r="F10">
         <v>18.25356037251827</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>52.06863534772808</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>4.146428812319149</v>
       </c>
-      <c r="H10" t="n">
-        <v>1926.777881886444</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>1978.354957337291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1906.698210631327</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.275313712149404</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>5.768850637858542</v>
+      </c>
+      <c r="D11">
         <v>48.36137700578038</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>47.32135058705672</v>
+      </c>
+      <c r="F11">
         <v>10.16515637511497</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>10.41372706954562</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>4.837500281039007</v>
       </c>
-      <c r="H11" t="n">
-        <v>1981.751285074957</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>2033.566172587722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1389.165839174253</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.073948389178445</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>4.857979484512456</v>
+      </c>
+      <c r="D12">
         <v>49.24067476952184</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>28.83644801398768</v>
+      </c>
+      <c r="F12">
         <v>9.072128807898304</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>22.91019955300036</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.382142937439717</v>
       </c>
-      <c r="H12" t="n">
-        <v>1472.844933631292</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1505.465412740613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1211.64566094306</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.738339517560181</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>3.339860895602314</v>
+      </c>
+      <c r="D13">
         <v>29.01682620346822</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>38.44859735198359</v>
+      </c>
+      <c r="F13">
         <v>5.683743349526647</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>37.48941745036421</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>3.455357343599291</v>
       </c>
-      <c r="H13" t="n">
-        <v>1288.029344807578</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1329.079463537604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>959.9239267316333</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.6376568560747018</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>2.884425318929271</v>
+      </c>
+      <c r="D14">
         <v>29.89612396720969</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>24.40007139645112</v>
+      </c>
+      <c r="F14">
         <v>3.82559648525832</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>29.15843579472771</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>3.455357343599291</v>
       </c>
-      <c r="H14" t="n">
-        <v>1026.897097178503</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>1053.543937037809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>678.1458660472013</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.9061439533693132</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>4.098920190057385</v>
+      </c>
+      <c r="D15">
         <v>19.34455080231215</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>14.04852595553245</v>
+      </c>
+      <c r="F15">
         <v>3.27908270164999</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>24.99294496690947</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>726.6685884714421</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>743.9098906636626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>417.0315298129602</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.738339517560181</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>3.339860895602314</v>
+      </c>
+      <c r="D16">
         <v>13.18946645612192</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>7.39396102922761</v>
+      </c>
+      <c r="F16">
         <v>2.513963404598324</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>22.91019955300036</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>456.383498744241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>466.3789811515108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>324.0447697870975</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.040387502016619</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>4.706167625621442</v>
+      </c>
+      <c r="D17">
         <v>4.396488818707307</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.478792205845523</v>
+      </c>
+      <c r="F17">
         <v>1.420935837381662</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>27.07569038081861</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>357.9782723260217</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>363.1228446554721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>211.3335455133244</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.9397048405311396</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>4.250732048948399</v>
+      </c>
+      <c r="D18">
         <v>7.913679873673155</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F18">
         <v>2.62326616131999</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>16.66196331127298</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>239.4721597001217</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>245.74077132023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>125.8608671057132</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.8390221790456605</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>3.795296472275357</v>
+      </c>
+      <c r="D19">
         <v>10.55157316489754</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.7393961029227613</v>
+      </c>
+      <c r="F19">
         <v>1.20233032393833</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>35.40667203645508</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H19" t="n">
-        <v>174.5515362787697</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>178.2472066749222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>152.1601527695936</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.6376568560747018</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>2.884425318929271</v>
+      </c>
+      <c r="D20">
         <v>13.18946645612192</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F20">
         <v>2.40466064787666</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>29.15843579472771</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H20" t="n">
-        <v>198.2414439931144</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>202.7064007647373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>261.1143362342409</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.3020479844564378</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>1.366306730019128</v>
+      </c>
+      <c r="D21">
         <v>18.46525303857069</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>5.175772720459328</v>
+      </c>
+      <c r="F21">
         <v>4.262807512144987</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>47.9031445199098</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>332.0475892893228</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>338.2876207553448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>525.0464530753262</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.2684870972946113</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>1.214494871128114</v>
+      </c>
+      <c r="D22">
         <v>27.25823067598531</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>21.44248698476007</v>
+      </c>
+      <c r="F22">
         <v>12.02330323938329</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>87.47530738418314</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>1.382142937439717</v>
       </c>
-      <c r="H22" t="n">
-        <v>653.4539244096122</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>675.8424191682058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>997.4943348228915</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.6040959689128756</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>2.732613460038256</v>
+      </c>
+      <c r="D23">
         <v>46.60278147829745</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>62.10927264551193</v>
+      </c>
+      <c r="F23">
         <v>17.70704658890994</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>122.8819794206382</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>8.292857624638298</v>
       </c>
-      <c r="H23" t="n">
-        <v>1193.583095904288</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>1257.820886040925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1435.189589086043</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.9061439533693132</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>4.098920190057385</v>
+      </c>
+      <c r="D24">
         <v>49.24067476952184</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>67.28504536597123</v>
+      </c>
+      <c r="F24">
         <v>18.69077139940494</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>156.2059060431841</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>12.43928643695744</v>
       </c>
-      <c r="H24" t="n">
-        <v>1672.672371688481</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1743.15019329114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1560.111195989475</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.543800809444015</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>6.983345508986656</v>
+      </c>
+      <c r="D25">
         <v>61.55084346190231</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>31.79403242567873</v>
+      </c>
+      <c r="F25">
         <v>19.01867966956992</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>106.2200161093653</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>5.528571749758867</v>
       </c>
-      <c r="H25" t="n">
-        <v>1753.973107789516</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1791.206684914737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1462.428134952204</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.644483470929494</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>7.438781085659699</v>
+      </c>
+      <c r="D26">
         <v>59.79224793441937</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>25.87886360229663</v>
+      </c>
+      <c r="F26">
         <v>20.11170723678659</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>116.6337431789108</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>5.528571749758867</v>
       </c>
-      <c r="H26" t="n">
-        <v>1666.138888523009</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>1697.812049740036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1377.894716746875</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.114335891195064</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>9.564147110133899</v>
+      </c>
+      <c r="D27">
         <v>72.98171439054124</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>10.35154544091866</v>
+      </c>
+      <c r="F27">
         <v>22.0791568577766</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>102.054525281547</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>14.51250084311702</v>
       </c>
-      <c r="H27" t="n">
-        <v>1591.636950011052</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>1609.438306670909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1396.679920792504</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.946531455385932</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>8.805087815678828</v>
+      </c>
+      <c r="D28">
         <v>57.15435464319498</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>10.35154544091866</v>
+      </c>
+      <c r="F28">
         <v>19.78379896662161</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>108.3027615232744</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>8.983929093358153</v>
       </c>
-      <c r="H28" t="n">
-        <v>1592.851296474339</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1610.061398275551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1457.731833940799</v>
       </c>
-      <c r="C29" t="n">
-        <v>2.080775004033238</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>9.412335251242885</v>
+      </c>
+      <c r="D29">
         <v>48.36137700578038</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>11.09094154384142</v>
+      </c>
+      <c r="F29">
         <v>19.78379896662161</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>87.47530738418314</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>5.528571749758867</v>
       </c>
-      <c r="H29" t="n">
-        <v>1620.961664051176</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1639.384165842227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1513.148185875403</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D30">
         <v>40.44769713210723</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>12.56973374968694</v>
+      </c>
+      <c r="F30">
         <v>24.59312026237491</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>97.88903445372877</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>8.292857624638298</v>
       </c>
-      <c r="H30" t="n">
-        <v>1686.183183254991</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1705.138469478054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1360.048772903528</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D31">
         <v>53.63716358822917</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F31">
         <v>19.23728518301328</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>68.73059865900105</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>4.146428812319149</v>
       </c>
-      <c r="H31" t="n">
-        <v>1507.612537052829</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1527.307219378815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1515.026706279966</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.610922583767668</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>7.286969226768687</v>
+      </c>
+      <c r="D32">
         <v>80.89539426421446</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F32">
         <v>22.0791568577766</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>64.5651078311828</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>9.675000562078013</v>
       </c>
-      <c r="H32" t="n">
-        <v>1693.852288378985</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>1712.837464874596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1522.540787898218</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.678044358091321</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>7.590592944550714</v>
+      </c>
+      <c r="D33">
         <v>68.58522557183393</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>19.22429867599179</v>
+      </c>
+      <c r="F33">
         <v>20.4396155069516</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>81.22707114245577</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>8.983929093358153</v>
       </c>
-      <c r="H33" t="n">
-        <v>1703.454673570909</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>1728.59152083336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1817.46849141459</v>
       </c>
-      <c r="C34" t="n">
-        <v>1.443118147958535</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>6.527909932313612</v>
+      </c>
+      <c r="D34">
         <v>59.79224793441937</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>39.18799345490635</v>
+      </c>
+      <c r="F34">
         <v>17.05123004857995</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>45.82039910600071</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>6.910714687198581</v>
       </c>
-      <c r="H34" t="n">
-        <v>1948.486201338747</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1992.758986578008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1897.305608608512</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.107509276340272</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>5.009791343403472</v>
+      </c>
+      <c r="D35">
         <v>49.24067476952184</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>43.62437007244291</v>
+      </c>
+      <c r="F35">
         <v>13.22563356332162</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>29.15843579472771</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>5.528571749758867</v>
       </c>
-      <c r="H35" t="n">
-        <v>1995.566433762183</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>2043.093085901689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1427.675507467792</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.9061439533693132</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>4.098920190057385</v>
+      </c>
+      <c r="D36">
         <v>50.11997253326332</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>45.8425583812112</v>
+      </c>
+      <c r="F36">
         <v>8.197706754124969</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>27.07569038081861</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>3.455357343599291</v>
       </c>
-      <c r="H36" t="n">
-        <v>1517.430378432967</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1566.465713050867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1325.296145419114</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.8390221790456605</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>3.795296472275357</v>
+      </c>
+      <c r="D37">
         <v>29.01682620346822</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>45.10316227828842</v>
+      </c>
+      <c r="F37">
         <v>7.10467918690831</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>35.40667203645508</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>1.382142937439717</v>
       </c>
-      <c r="H37" t="n">
-        <v>1399.045487962431</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>1447.10492453395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1053.849946959778</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.5034133074273962</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>2.277177883365214</v>
+      </c>
+      <c r="D38">
         <v>23.74103962101947</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>31.05463632275596</v>
+      </c>
+      <c r="F38">
         <v>4.590715782309986</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>35.40667203645508</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.382142937439717</v>
       </c>
-      <c r="H38" t="n">
-        <v>1119.473930644429</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>1152.302331543123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>754.225942431998</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.7047786303983548</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>3.1880490367113</v>
+      </c>
+      <c r="D39">
         <v>11.430870928639</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F39">
         <v>3.27908270164999</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>20.82745413909123</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>2.073214406159575</v>
       </c>
-      <c r="H39" t="n">
-        <v>792.5413432379361</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>808.3337434968586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>444.270075679122</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.8054612918838339</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>3.643484613384343</v>
+      </c>
+      <c r="D40">
         <v>12.31016869238046</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>5.91516882338209</v>
+      </c>
+      <c r="F40">
         <v>2.62326616131999</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>29.15843579472771</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>489.167407619434</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>497.9205997643166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>342.8299738327264</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.8390221790456605</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>3.795296472275357</v>
+      </c>
+      <c r="D41">
         <v>4.396488818707307</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F41">
         <v>2.07675237771166</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>35.40667203645508</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>385.5489092446462</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>391.4627679495669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>222.6046679407017</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.9397048405311396</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>4.250732048948399</v>
+      </c>
+      <c r="D42">
         <v>7.034382109931689</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>3.696980514613805</v>
+      </c>
+      <c r="F42">
         <v>2.186055134433325</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>31.24118120863684</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>264.0059912342347</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>271.0139989572658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>155.9171935787193</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.040387502016619</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>4.706167625621442</v>
+      </c>
+      <c r="D43">
         <v>13.18946645612192</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.478792205845523</v>
+      </c>
+      <c r="F43">
         <v>1.748844107546661</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>20.82745413909123</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H43" t="n">
-        <v>193.4144172522156</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>198.558989581666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>172.8238772197853</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.040387502016619</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>4.706167625621442</v>
+      </c>
+      <c r="D44">
         <v>8.792977637414614</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F44">
         <v>2.40466064787666</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>12.49647248345474</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>197.5583754905479</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>204.1817400258438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>232.9365301657975</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.3356088716182641</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>1.518118588910143</v>
+      </c>
+      <c r="D45">
         <v>16.70665751108778</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>4.436376617536567</v>
+      </c>
+      <c r="F45">
         <v>4.044201998701654</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>27.07569038081861</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>2.764285874879433</v>
       </c>
-      <c r="H45" t="n">
-        <v>283.8629748029032</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>289.4818611377317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>541.0138765141104</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.2684870972946113</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>1.214494871128114</v>
+      </c>
+      <c r="D46">
         <v>26.37893291224384</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>22.18188308768283</v>
+      </c>
+      <c r="F46">
         <v>12.46051426626996</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>91.64079821200143</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>1.382142937439717</v>
       </c>
-      <c r="H46" t="n">
-        <v>673.1447519393599</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>696.2726428008763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1028.489921498179</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.5705350817510491</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>2.580801601147243</v>
+      </c>
+      <c r="D47">
         <v>44.84418595081453</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>64.3274609542802</v>
+      </c>
+      <c r="F47">
         <v>18.36286312923994</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>129.1302156623656</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>7.601786155918439</v>
       </c>
-      <c r="H47" t="n">
-        <v>1228.999507478268</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>1295.337234951945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1479.33481859327</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.8725830662074867</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>3.947108331166371</v>
+      </c>
+      <c r="D48">
         <v>47.48207924203894</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>70.24262977766232</v>
+      </c>
+      <c r="F48">
         <v>19.34658793973493</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>164.5368876988207</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>11.74821496823759</v>
       </c>
-      <c r="H48" t="n">
-        <v>1723.32117150831</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1796.638326550931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1608.95272650811</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.510239922282189</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>6.831533650095641</v>
+      </c>
+      <c r="D49">
         <v>59.79224793441937</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>33.27282463152425</v>
+      </c>
+      <c r="F49">
         <v>19.78379896662161</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>112.4682523510926</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>4.837500281039007</v>
       </c>
-      <c r="H49" t="n">
-        <v>1807.344765963564</v>
+      <c r="I49">
+        <v>1845.938884322902</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1418.282905444978</v>
+        <v>2055.89356815372</v>
       </c>
       <c r="C2">
-        <v>7.742404803441728</v>
+        <v>11.22312070203249</v>
       </c>
       <c r="D2">
-        <v>61.55084346190231</v>
+        <v>89.22196178347053</v>
       </c>
       <c r="E2">
-        <v>25.13946749937387</v>
+        <v>36.44129767083152</v>
       </c>
       <c r="F2">
-        <v>19.34658793973493</v>
+        <v>28.04414095264186</v>
       </c>
       <c r="G2">
-        <v>110.3855069371835</v>
+        <v>160.0109913602477</v>
       </c>
       <c r="H2">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I2">
-        <v>1648.667359305093</v>
+        <v>2389.850859097034</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1336.567267846492</v>
+        <v>1937.441422174002</v>
       </c>
       <c r="C3">
-        <v>9.867770827915926</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D3">
-        <v>75.61960768176571</v>
+        <v>109.6155530482638</v>
       </c>
       <c r="E3">
-        <v>9.612149337995897</v>
+        <v>13.9334373447297</v>
       </c>
       <c r="F3">
-        <v>21.31403756072493</v>
+        <v>30.89608749019867</v>
       </c>
       <c r="G3">
-        <v>97.88903445372877</v>
+        <v>141.8965395081442</v>
       </c>
       <c r="H3">
-        <v>15.89464378055673</v>
+        <v>23.04032276712007</v>
       </c>
       <c r="I3">
-        <v>1566.764511489179</v>
+        <v>2271.127339697794</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1249.216069034318</v>
+        <v>1810.820162678442</v>
       </c>
       <c r="C4">
-        <v>7.742404803441728</v>
+        <v>11.22312070203249</v>
       </c>
       <c r="D4">
-        <v>37.80980384088286</v>
+        <v>54.8077765241319</v>
       </c>
       <c r="E4">
-        <v>8.872753235073134</v>
+        <v>12.86163447205818</v>
       </c>
       <c r="F4">
-        <v>16.94192729185828</v>
+        <v>24.55842851785021</v>
       </c>
       <c r="G4">
-        <v>93.72354362591051</v>
+        <v>135.8583888907764</v>
       </c>
       <c r="H4">
-        <v>13.82142937439716</v>
+        <v>20.03506327575658</v>
       </c>
       <c r="I4">
-        <v>1428.127931205882</v>
+        <v>2070.164575061048</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1449.278492120265</v>
+        <v>2100.823692490854</v>
       </c>
       <c r="C5">
-        <v>8.349652239005785</v>
+        <v>12.10336546297621</v>
       </c>
       <c r="D5">
-        <v>50.99927029700475</v>
+        <v>73.92676833487562</v>
       </c>
       <c r="E5">
-        <v>15.52731816137798</v>
+        <v>22.50786032610182</v>
       </c>
       <c r="F5">
-        <v>20.4396155069516</v>
+        <v>29.62855569572897</v>
       </c>
       <c r="G5">
-        <v>77.06158031463754</v>
+        <v>111.705786421305</v>
       </c>
       <c r="H5">
-        <v>11.74821496823759</v>
+        <v>17.0298037843931</v>
       </c>
       <c r="I5">
-        <v>1633.404143607481</v>
+        <v>2367.725832516235</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1347.838390273869</v>
+        <v>1953.779649205688</v>
       </c>
       <c r="C6">
-        <v>8.653275956787812</v>
+        <v>12.54348784344807</v>
       </c>
       <c r="D6">
-        <v>62.43014122564377</v>
+        <v>90.49656123752013</v>
       </c>
       <c r="E6">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F6">
-        <v>21.86055134433326</v>
+        <v>31.68829486174221</v>
       </c>
       <c r="G6">
-        <v>79.14432572854665</v>
+        <v>114.7248617299889</v>
       </c>
       <c r="H6">
-        <v>10.36607203079787</v>
+        <v>15.02629745681744</v>
       </c>
       <c r="I6">
-        <v>1543.601886412588</v>
+        <v>2237.551604043291</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1445.521451311139</v>
+        <v>2095.377616813625</v>
       </c>
       <c r="C7">
-        <v>8.95689967456984</v>
+        <v>12.98361022391993</v>
       </c>
       <c r="D7">
-        <v>72.10241662679987</v>
+        <v>104.5171552320655</v>
       </c>
       <c r="E7">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F7">
-        <v>22.95357891154993</v>
+        <v>33.27270960482932</v>
       </c>
       <c r="G7">
-        <v>74.97883490072842</v>
+        <v>108.6867111126211</v>
       </c>
       <c r="H7">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I7">
-        <v>1646.806240370755</v>
+        <v>2387.15304582439</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1477.456298188708</v>
+        <v>2141.669260070067</v>
       </c>
       <c r="C8">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D8">
-        <v>70.34382109931691</v>
+        <v>101.9679563239664</v>
       </c>
       <c r="E8">
-        <v>14.78792205845522</v>
+        <v>21.43605745343032</v>
       </c>
       <c r="F8">
-        <v>21.42334031744659</v>
+        <v>31.05452896450737</v>
       </c>
       <c r="G8">
-        <v>64.5651078311828</v>
+        <v>93.59133456920152</v>
       </c>
       <c r="H8">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I8">
-        <v>1661.611830156264</v>
+        <v>2408.614713800428</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1652.158695813057</v>
+        <v>2394.911779061187</v>
       </c>
       <c r="C9">
-        <v>7.590592944550714</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D9">
-        <v>61.55084346190231</v>
+        <v>89.22196178347053</v>
       </c>
       <c r="E9">
-        <v>23.66067529352836</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F9">
-        <v>19.01867966956992</v>
+        <v>27.56881652971573</v>
       </c>
       <c r="G9">
-        <v>68.73059865900105</v>
+        <v>99.62948518656934</v>
       </c>
       <c r="H9">
-        <v>7.601786155918439</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I9">
-        <v>1840.311871997528</v>
+        <v>2667.652078799893</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1793.986986357554</v>
+        <v>2600.50113587656</v>
       </c>
       <c r="C10">
-        <v>9.260523392351869</v>
+        <v>13.4237326043918</v>
       </c>
       <c r="D10">
-        <v>56.27505687945352</v>
+        <v>81.57436505917308</v>
       </c>
       <c r="E10">
-        <v>44.36376617536567</v>
+        <v>64.30817236029092</v>
       </c>
       <c r="F10">
-        <v>18.25356037251827</v>
+        <v>26.45972620955477</v>
       </c>
       <c r="G10">
-        <v>52.06863534772808</v>
+        <v>75.47688271709801</v>
       </c>
       <c r="H10">
-        <v>4.146428812319149</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I10">
-        <v>1978.354957337291</v>
+        <v>2867.754533809795</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1906.698210631327</v>
+        <v>2763.883406193411</v>
       </c>
       <c r="C11">
-        <v>5.768850637858542</v>
+        <v>8.362325228965384</v>
       </c>
       <c r="D11">
-        <v>48.36137700578038</v>
+        <v>70.10296997272688</v>
       </c>
       <c r="E11">
-        <v>47.32135058705672</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F11">
-        <v>10.16515637511497</v>
+        <v>14.73505711071013</v>
       </c>
       <c r="G11">
-        <v>10.41372706954562</v>
+        <v>15.09537654341959</v>
       </c>
       <c r="H11">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I11">
-        <v>2033.566172587722</v>
+        <v>2947.786791046725</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1389.165839174253</v>
+        <v>2013.686481655199</v>
       </c>
       <c r="C12">
-        <v>4.857979484512456</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D12">
-        <v>49.24067476952184</v>
+        <v>71.3775694267764</v>
       </c>
       <c r="E12">
-        <v>28.83644801398768</v>
+        <v>41.8003120341891</v>
       </c>
       <c r="F12">
-        <v>9.072128807898304</v>
+        <v>13.15064236762302</v>
       </c>
       <c r="G12">
-        <v>22.91019955300036</v>
+        <v>33.2098283955231</v>
       </c>
       <c r="H12">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I12">
-        <v>1505.465412740613</v>
+        <v>2182.270298294436</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1211.64566094306</v>
+        <v>1756.359405906157</v>
       </c>
       <c r="C13">
-        <v>3.339860895602314</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D13">
-        <v>29.01682620346822</v>
+        <v>42.06178198363612</v>
       </c>
       <c r="E13">
-        <v>38.44859735198359</v>
+        <v>55.73374937891879</v>
       </c>
       <c r="F13">
-        <v>5.683743349526647</v>
+        <v>8.238956664052976</v>
       </c>
       <c r="G13">
-        <v>37.48941745036421</v>
+        <v>54.34335555631056</v>
       </c>
       <c r="H13">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I13">
-        <v>1329.079463537604</v>
+        <v>1926.587361493206</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>959.9239267316333</v>
+        <v>1391.472335531855</v>
       </c>
       <c r="C14">
-        <v>2.884425318929271</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D14">
-        <v>29.89612396720969</v>
+        <v>43.3363814376857</v>
       </c>
       <c r="E14">
-        <v>24.40007139645112</v>
+        <v>35.36949479816003</v>
       </c>
       <c r="F14">
-        <v>3.82559648525832</v>
+        <v>5.545451600804889</v>
       </c>
       <c r="G14">
-        <v>29.15843579472771</v>
+        <v>42.26705432157486</v>
       </c>
       <c r="H14">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I14">
-        <v>1053.543937037809</v>
+        <v>1527.180646123503</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>678.1458660472013</v>
+        <v>983.0166597397254</v>
       </c>
       <c r="C15">
-        <v>4.098920190057385</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D15">
-        <v>19.34455080231215</v>
+        <v>28.04118798909075</v>
       </c>
       <c r="E15">
-        <v>14.04852595553245</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F15">
-        <v>3.27908270164999</v>
+        <v>4.753244229261331</v>
       </c>
       <c r="G15">
-        <v>24.99294496690947</v>
+        <v>36.22890370420703</v>
       </c>
       <c r="I15">
-        <v>743.9098906636626</v>
+        <v>1078.345902379413</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>417.0315298129602</v>
+        <v>604.5144001723521</v>
       </c>
       <c r="C16">
-        <v>3.339860895602314</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D16">
-        <v>13.18946645612192</v>
+        <v>19.11899181074369</v>
       </c>
       <c r="E16">
-        <v>7.39396102922761</v>
+        <v>10.71802872671516</v>
       </c>
       <c r="F16">
-        <v>2.513963404598324</v>
+        <v>3.644153909100354</v>
       </c>
       <c r="G16">
-        <v>22.91019955300036</v>
+        <v>33.2098283955231</v>
       </c>
       <c r="I16">
-        <v>466.3789811515108</v>
+        <v>676.0467491996249</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>324.0447697870975</v>
+        <v>469.7240271609492</v>
       </c>
       <c r="C17">
-        <v>4.706167625621442</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D17">
-        <v>4.396488818707307</v>
+        <v>6.3729972702479</v>
       </c>
       <c r="E17">
-        <v>1.478792205845523</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F17">
-        <v>1.420935837381662</v>
+        <v>2.059739166013244</v>
       </c>
       <c r="G17">
-        <v>27.07569038081861</v>
+        <v>39.24797901289095</v>
       </c>
       <c r="I17">
-        <v>363.1228446554721</v>
+        <v>526.3702452527582</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>211.3335455133244</v>
+        <v>306.3417568440971</v>
       </c>
       <c r="C18">
-        <v>4.250732048948399</v>
+        <v>6.16171332660607</v>
       </c>
       <c r="D18">
-        <v>7.913679873673155</v>
+        <v>11.47139508644621</v>
       </c>
       <c r="E18">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F18">
-        <v>2.62326616131999</v>
+        <v>3.802595383409066</v>
       </c>
       <c r="G18">
-        <v>16.66196331127298</v>
+        <v>24.15260246947134</v>
       </c>
       <c r="I18">
-        <v>245.74077132023</v>
+        <v>356.2172746007158</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>125.8608671057132</v>
+        <v>182.4435351871513</v>
       </c>
       <c r="C19">
-        <v>3.795296472275357</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D19">
-        <v>10.55157316489754</v>
+        <v>15.29519344859495</v>
       </c>
       <c r="E19">
-        <v>0.7393961029227613</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F19">
-        <v>1.20233032393833</v>
+        <v>1.742856217395822</v>
       </c>
       <c r="G19">
-        <v>35.40667203645508</v>
+        <v>51.32428024762665</v>
       </c>
       <c r="H19">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I19">
-        <v>178.2472066749222</v>
+        <v>258.3809508931263</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>152.1601527695936</v>
+        <v>220.5660649277501</v>
       </c>
       <c r="C20">
-        <v>2.884425318929271</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D20">
-        <v>13.18946645612192</v>
+        <v>19.11899181074369</v>
       </c>
       <c r="E20">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F20">
-        <v>2.40466064787666</v>
+        <v>3.485712434791644</v>
       </c>
       <c r="G20">
-        <v>29.15843579472771</v>
+        <v>42.26705432157486</v>
       </c>
       <c r="H20">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I20">
-        <v>202.7064007647373</v>
+        <v>293.8361478911454</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>261.1143362342409</v>
+        <v>378.5022595673735</v>
       </c>
       <c r="C21">
-        <v>1.366306730019128</v>
+        <v>1.98055071212338</v>
       </c>
       <c r="D21">
-        <v>18.46525303857069</v>
+        <v>26.76658853504117</v>
       </c>
       <c r="E21">
-        <v>5.175772720459328</v>
+        <v>7.50262010870061</v>
       </c>
       <c r="F21">
-        <v>4.262807512144987</v>
+        <v>6.179217498039731</v>
       </c>
       <c r="G21">
-        <v>47.9031445199098</v>
+        <v>69.43873209973016</v>
       </c>
       <c r="I21">
-        <v>338.2876207553448</v>
+        <v>490.3699685210086</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>525.0464530753262</v>
+        <v>761.0890758926685</v>
       </c>
       <c r="C22">
-        <v>1.214494871128114</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D22">
-        <v>27.25823067598531</v>
+        <v>39.51258307553697</v>
       </c>
       <c r="E22">
-        <v>21.44248698476007</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F22">
-        <v>12.02330323938329</v>
+        <v>17.42856217395822</v>
       </c>
       <c r="G22">
-        <v>87.47530738418314</v>
+        <v>126.8011629647247</v>
       </c>
       <c r="H22">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I22">
-        <v>675.8424191682058</v>
+        <v>979.6776632638254</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>997.4943348228915</v>
+        <v>1445.933092304139</v>
       </c>
       <c r="C23">
-        <v>2.732613460038256</v>
+        <v>3.961101424246761</v>
       </c>
       <c r="D23">
-        <v>46.60278147829745</v>
+        <v>67.5537710646277</v>
       </c>
       <c r="E23">
-        <v>62.10927264551193</v>
+        <v>90.03144130440729</v>
       </c>
       <c r="F23">
-        <v>17.70704658890994</v>
+        <v>25.66751883801119</v>
       </c>
       <c r="G23">
-        <v>122.8819794206382</v>
+        <v>178.1254432123512</v>
       </c>
       <c r="H23">
-        <v>8.292857624638298</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I23">
-        <v>1257.820886040925</v>
+        <v>1823.293406113237</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1435.189589086043</v>
+        <v>2080.400908701247</v>
       </c>
       <c r="C24">
-        <v>4.098920190057385</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D24">
-        <v>49.24067476952184</v>
+        <v>71.3775694267764</v>
       </c>
       <c r="E24">
-        <v>67.28504536597123</v>
+        <v>97.53406141310789</v>
       </c>
       <c r="F24">
-        <v>18.69077139940494</v>
+        <v>27.09349210678959</v>
       </c>
       <c r="G24">
-        <v>156.2059060431841</v>
+        <v>226.4306481512939</v>
       </c>
       <c r="H24">
-        <v>12.43928643695744</v>
+        <v>18.03155694818092</v>
       </c>
       <c r="I24">
-        <v>1743.15019329114</v>
+        <v>2526.809888883766</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1560.111195989475</v>
+        <v>2261.482924969092</v>
       </c>
       <c r="C25">
-        <v>6.983345508986656</v>
+        <v>10.12281475085283</v>
       </c>
       <c r="D25">
-        <v>61.55084346190231</v>
+        <v>89.22196178347053</v>
       </c>
       <c r="E25">
-        <v>31.79403242567873</v>
+        <v>46.08752352487517</v>
       </c>
       <c r="F25">
-        <v>19.01867966956992</v>
+        <v>27.56881652971573</v>
       </c>
       <c r="G25">
-        <v>106.2200161093653</v>
+        <v>153.9728407428799</v>
       </c>
       <c r="H25">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I25">
-        <v>1791.206684914737</v>
+        <v>2596.470907611188</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1462.428134952204</v>
+        <v>2119.884957361152</v>
       </c>
       <c r="C26">
-        <v>7.438781085659699</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D26">
-        <v>59.79224793441937</v>
+        <v>86.6727628753714</v>
       </c>
       <c r="E26">
-        <v>25.87886360229663</v>
+        <v>37.51310054350304</v>
       </c>
       <c r="F26">
-        <v>20.11170723678659</v>
+        <v>29.15323127280283</v>
       </c>
       <c r="G26">
-        <v>116.6337431789108</v>
+        <v>169.0682172862994</v>
       </c>
       <c r="H26">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I26">
-        <v>1697.812049740036</v>
+        <v>2461.089292970993</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1377.894716746875</v>
+        <v>1997.348254623514</v>
       </c>
       <c r="C27">
-        <v>9.564147110133899</v>
+        <v>13.86385498486366</v>
       </c>
       <c r="D27">
-        <v>72.98171439054124</v>
+        <v>105.7917546861151</v>
       </c>
       <c r="E27">
-        <v>10.35154544091866</v>
+        <v>15.00524021740122</v>
       </c>
       <c r="F27">
-        <v>22.0791568577766</v>
+        <v>32.00517781035963</v>
       </c>
       <c r="G27">
-        <v>102.054525281547</v>
+        <v>147.934690125512</v>
       </c>
       <c r="H27">
-        <v>14.51250084311702</v>
+        <v>21.03681643954441</v>
       </c>
       <c r="I27">
-        <v>1609.438306670909</v>
+        <v>2332.98578888731</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1396.679920792504</v>
+        <v>2024.578633009656</v>
       </c>
       <c r="C28">
-        <v>8.805087815678828</v>
+        <v>12.763549033684</v>
       </c>
       <c r="D28">
-        <v>57.15435464319498</v>
+        <v>82.84896451322267</v>
       </c>
       <c r="E28">
-        <v>10.35154544091866</v>
+        <v>15.00524021740122</v>
       </c>
       <c r="F28">
-        <v>19.78379896662161</v>
+        <v>28.67790684987672</v>
       </c>
       <c r="G28">
-        <v>108.3027615232744</v>
+        <v>156.9919160515638</v>
       </c>
       <c r="H28">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I28">
-        <v>1610.061398275551</v>
+        <v>2333.889000804646</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1457.731833940799</v>
+        <v>2113.077362764618</v>
       </c>
       <c r="C29">
-        <v>9.412335251242885</v>
+        <v>13.64379379462773</v>
       </c>
       <c r="D29">
-        <v>48.36137700578038</v>
+        <v>70.10296997272688</v>
       </c>
       <c r="E29">
-        <v>11.09094154384142</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F29">
-        <v>19.78379896662161</v>
+        <v>28.67790684987672</v>
       </c>
       <c r="G29">
-        <v>87.47530738418314</v>
+        <v>126.8011629647247</v>
       </c>
       <c r="H29">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I29">
-        <v>1639.384165842227</v>
+        <v>2376.394264746949</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1513.148185875403</v>
+        <v>2193.406979003737</v>
       </c>
       <c r="C30">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D30">
-        <v>40.44769713210723</v>
+        <v>58.63157488628063</v>
       </c>
       <c r="E30">
-        <v>12.56973374968694</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F30">
-        <v>24.59312026237491</v>
+        <v>35.64933171945999</v>
       </c>
       <c r="G30">
-        <v>97.88903445372877</v>
+        <v>141.8965395081442</v>
       </c>
       <c r="H30">
-        <v>8.292857624638298</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I30">
-        <v>1705.138469478054</v>
+        <v>2471.709416191232</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1360.048772903528</v>
+        <v>1971.479395156679</v>
       </c>
       <c r="C31">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D31">
-        <v>53.63716358822917</v>
+        <v>77.75056669702435</v>
       </c>
       <c r="E31">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F31">
-        <v>19.23728518301328</v>
+        <v>27.88569947833315</v>
       </c>
       <c r="G31">
-        <v>68.73059865900105</v>
+        <v>99.62948518656934</v>
       </c>
       <c r="H31">
-        <v>4.146428812319149</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I31">
-        <v>1527.307219378815</v>
+        <v>2213.93142148216</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1515.026706279966</v>
+        <v>2196.13001684235</v>
       </c>
       <c r="C32">
-        <v>7.286969226768687</v>
+        <v>10.56293713132469</v>
       </c>
       <c r="D32">
-        <v>80.89539426421446</v>
+        <v>117.2631497725613</v>
       </c>
       <c r="E32">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F32">
-        <v>22.0791568577766</v>
+        <v>32.00517781035963</v>
       </c>
       <c r="G32">
-        <v>64.5651078311828</v>
+        <v>93.59133456920152</v>
       </c>
       <c r="H32">
-        <v>9.675000562078013</v>
+        <v>14.02454429302961</v>
       </c>
       <c r="I32">
-        <v>1712.837464874596</v>
+        <v>2482.869612126914</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1522.540787898218</v>
+        <v>2207.022168196808</v>
       </c>
       <c r="C33">
-        <v>7.590592944550714</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D33">
-        <v>68.58522557183393</v>
+        <v>99.41875741586719</v>
       </c>
       <c r="E33">
-        <v>19.22429867599179</v>
+        <v>27.8668746894594</v>
       </c>
       <c r="F33">
-        <v>20.4396155069516</v>
+        <v>29.62855569572897</v>
       </c>
       <c r="G33">
-        <v>81.22707114245577</v>
+        <v>117.7439370386728</v>
       </c>
       <c r="H33">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I33">
-        <v>1728.59152083336</v>
+        <v>2505.706143677575</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1817.46849141459</v>
+        <v>2634.539108859236</v>
       </c>
       <c r="C34">
-        <v>6.527909932313612</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D34">
-        <v>59.79224793441937</v>
+        <v>86.6727628753714</v>
       </c>
       <c r="E34">
-        <v>39.18799345490635</v>
+        <v>56.80555225159031</v>
       </c>
       <c r="F34">
-        <v>17.05123004857995</v>
+        <v>24.71686999215892</v>
       </c>
       <c r="G34">
-        <v>45.82039910600071</v>
+        <v>66.41965679104621</v>
       </c>
       <c r="H34">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I34">
-        <v>1992.758986578008</v>
+        <v>2888.634113587425</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1897.305608608512</v>
+        <v>2750.26821700034</v>
       </c>
       <c r="C35">
-        <v>5.009791343403472</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D35">
-        <v>49.24067476952184</v>
+        <v>71.3775694267764</v>
       </c>
       <c r="E35">
-        <v>43.62437007244291</v>
+        <v>63.23636948761941</v>
       </c>
       <c r="F35">
-        <v>13.22563356332162</v>
+        <v>19.17141839135404</v>
       </c>
       <c r="G35">
-        <v>29.15843579472771</v>
+        <v>42.26705432157486</v>
       </c>
       <c r="H35">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I35">
-        <v>2043.093085901689</v>
+        <v>2961.596673215754</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1427.675507467792</v>
+        <v>2069.508757346791</v>
       </c>
       <c r="C36">
-        <v>4.098920190057385</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D36">
-        <v>50.11997253326332</v>
+        <v>72.65216888082604</v>
       </c>
       <c r="E36">
-        <v>45.8425583812112</v>
+        <v>66.45177810563395</v>
       </c>
       <c r="F36">
-        <v>8.197706754124969</v>
+        <v>11.88311057315333</v>
       </c>
       <c r="G36">
-        <v>27.07569038081861</v>
+        <v>39.24797901289095</v>
       </c>
       <c r="H36">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I36">
-        <v>1566.465713050867</v>
+        <v>2270.694211874604</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1325.296145419114</v>
+        <v>1921.103195142317</v>
       </c>
       <c r="C37">
-        <v>3.795296472275357</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D37">
-        <v>29.01682620346822</v>
+        <v>42.06178198363612</v>
       </c>
       <c r="E37">
-        <v>45.10316227828842</v>
+        <v>65.37997523296244</v>
       </c>
       <c r="F37">
-        <v>7.10467918690831</v>
+        <v>10.29869583006622</v>
       </c>
       <c r="G37">
-        <v>35.40667203645508</v>
+        <v>51.32428024762665</v>
       </c>
       <c r="H37">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I37">
-        <v>1447.10492453395</v>
+        <v>2097.672964520082</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1053.849946959778</v>
+        <v>1527.624227462565</v>
       </c>
       <c r="C38">
-        <v>2.277177883365214</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D38">
-        <v>23.74103962101947</v>
+        <v>34.41418525933866</v>
       </c>
       <c r="E38">
-        <v>31.05463632275596</v>
+        <v>45.01572065220365</v>
       </c>
       <c r="F38">
-        <v>4.590715782309986</v>
+        <v>6.654541920965865</v>
       </c>
       <c r="G38">
-        <v>35.40667203645508</v>
+        <v>51.32428024762665</v>
       </c>
       <c r="H38">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>1152.302331543123</v>
+        <v>1670.337379723814</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>754.225942431998</v>
+        <v>1093.299692203601</v>
       </c>
       <c r="C39">
-        <v>3.1880490367113</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D39">
-        <v>11.430870928639</v>
+        <v>16.56979290264453</v>
       </c>
       <c r="E39">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F39">
-        <v>3.27908270164999</v>
+        <v>4.753244229261331</v>
       </c>
       <c r="G39">
-        <v>20.82745413909123</v>
+        <v>30.19075308683919</v>
       </c>
       <c r="H39">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I39">
-        <v>808.3337434968586</v>
+        <v>1171.732478616751</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>444.270075679122</v>
+        <v>643.9984488322581</v>
       </c>
       <c r="C40">
-        <v>3.643484613384343</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D40">
-        <v>12.31016869238046</v>
+        <v>17.8443923566941</v>
       </c>
       <c r="E40">
-        <v>5.91516882338209</v>
+        <v>8.574422981372125</v>
       </c>
       <c r="F40">
-        <v>2.62326616131999</v>
+        <v>3.802595383409066</v>
       </c>
       <c r="G40">
-        <v>29.15843579472771</v>
+        <v>42.26705432157486</v>
       </c>
       <c r="I40">
-        <v>497.9205997643166</v>
+        <v>721.7683824409705</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>342.8299738327264</v>
+        <v>496.9544055470911</v>
       </c>
       <c r="C41">
-        <v>3.795296472275357</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D41">
-        <v>4.396488818707307</v>
+        <v>6.3729972702479</v>
       </c>
       <c r="E41">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F41">
-        <v>2.07675237771166</v>
+        <v>3.01038801186551</v>
       </c>
       <c r="G41">
-        <v>35.40667203645508</v>
+        <v>51.32428024762665</v>
       </c>
       <c r="I41">
-        <v>391.4627679495669</v>
+        <v>567.4508123234156</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>222.6046679407017</v>
+        <v>322.6799838757823</v>
       </c>
       <c r="C42">
-        <v>4.250732048948399</v>
+        <v>6.16171332660607</v>
       </c>
       <c r="D42">
-        <v>7.034382109931689</v>
+        <v>10.19679563239663</v>
       </c>
       <c r="E42">
-        <v>3.696980514613805</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F42">
-        <v>2.186055134433325</v>
+        <v>3.168829486174221</v>
       </c>
       <c r="G42">
-        <v>31.24118120863684</v>
+        <v>45.28612963025881</v>
       </c>
       <c r="I42">
-        <v>271.0139989572658</v>
+        <v>392.8524663145756</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>155.9171935787193</v>
+        <v>226.0121406049785</v>
       </c>
       <c r="C43">
-        <v>4.706167625621442</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D43">
-        <v>13.18946645612192</v>
+        <v>19.11899181074369</v>
       </c>
       <c r="E43">
-        <v>1.478792205845523</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F43">
-        <v>1.748844107546661</v>
+        <v>2.535063588939378</v>
       </c>
       <c r="G43">
-        <v>20.82745413909123</v>
+        <v>30.19075308683919</v>
       </c>
       <c r="H43">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I43">
-        <v>198.558989581666</v>
+        <v>287.8242048979455</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>172.8238772197853</v>
+        <v>250.5194811525062</v>
       </c>
       <c r="C44">
-        <v>4.706167625621442</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D44">
-        <v>8.792977637414614</v>
+        <v>12.7459945404958</v>
       </c>
       <c r="E44">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F44">
-        <v>2.40466064787666</v>
+        <v>3.485712434791644</v>
       </c>
       <c r="G44">
-        <v>12.49647248345474</v>
+        <v>18.11445185210352</v>
       </c>
       <c r="I44">
-        <v>204.1817400258438</v>
+        <v>295.9747483678971</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>232.9365301657975</v>
+        <v>337.6566919881607</v>
       </c>
       <c r="C45">
-        <v>1.518118588910143</v>
+        <v>2.200611902359311</v>
       </c>
       <c r="D45">
-        <v>16.70665751108778</v>
+        <v>24.21738962694202</v>
       </c>
       <c r="E45">
-        <v>4.436376617536567</v>
+        <v>6.430817236029091</v>
       </c>
       <c r="F45">
-        <v>4.044201998701654</v>
+        <v>5.86233454942231</v>
       </c>
       <c r="G45">
-        <v>27.07569038081861</v>
+        <v>39.24797901289095</v>
       </c>
       <c r="H45">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I45">
-        <v>289.4818611377317</v>
+        <v>419.6228369709556</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>541.0138765141104</v>
+        <v>784.2348975208891</v>
       </c>
       <c r="C46">
-        <v>1.214494871128114</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D46">
-        <v>26.37893291224384</v>
+        <v>38.23798362148739</v>
       </c>
       <c r="E46">
-        <v>22.18188308768283</v>
+        <v>32.15408618014546</v>
       </c>
       <c r="F46">
-        <v>12.46051426626996</v>
+        <v>18.06232807119306</v>
       </c>
       <c r="G46">
-        <v>91.64079821200143</v>
+        <v>132.8393135820924</v>
       </c>
       <c r="H46">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I46">
-        <v>696.2726428008763</v>
+        <v>1009.29260482527</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1028.489921498179</v>
+        <v>1490.863216641274</v>
       </c>
       <c r="C47">
-        <v>2.580801601147243</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D47">
-        <v>44.84418595081453</v>
+        <v>65.00457215652852</v>
       </c>
       <c r="E47">
-        <v>64.3274609542802</v>
+        <v>93.24684992242183</v>
       </c>
       <c r="F47">
-        <v>18.36286312923994</v>
+        <v>26.61816768386346</v>
       </c>
       <c r="G47">
-        <v>129.1302156623656</v>
+        <v>187.182669138403</v>
       </c>
       <c r="H47">
-        <v>7.601786155918439</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I47">
-        <v>1295.337234951945</v>
+        <v>1877.675800578168</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1479.33481859327</v>
+        <v>2144.392297908681</v>
       </c>
       <c r="C48">
-        <v>3.947108331166371</v>
+        <v>5.721590946134209</v>
       </c>
       <c r="D48">
-        <v>47.48207924203894</v>
+        <v>68.82837051867732</v>
       </c>
       <c r="E48">
-        <v>70.24262977766232</v>
+        <v>101.821272903794</v>
       </c>
       <c r="F48">
-        <v>19.34658793973493</v>
+        <v>28.04414095264186</v>
       </c>
       <c r="G48">
-        <v>164.5368876988207</v>
+        <v>238.5069493860297</v>
       </c>
       <c r="H48">
-        <v>11.74821496823759</v>
+        <v>17.0298037843931</v>
       </c>
       <c r="I48">
-        <v>1796.638326550931</v>
+        <v>2604.344426400351</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1608.95272650811</v>
+        <v>2332.28190877306</v>
       </c>
       <c r="C49">
-        <v>6.831533650095641</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D49">
-        <v>59.79224793441937</v>
+        <v>86.6727628753714</v>
       </c>
       <c r="E49">
-        <v>33.27282463152425</v>
+        <v>48.23112927021819</v>
       </c>
       <c r="F49">
-        <v>19.78379896662161</v>
+        <v>28.67790684987672</v>
       </c>
       <c r="G49">
-        <v>112.4682523510926</v>
+        <v>163.0300666689316</v>
       </c>
       <c r="H49">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I49">
-        <v>1845.938884322902</v>
+        <v>2675.808800144591</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2055.89356815372</v>
+        <v>1397.316984234052</v>
       </c>
       <c r="C2">
-        <v>11.22312070203249</v>
+        <v>7.627951862869113</v>
       </c>
       <c r="D2">
-        <v>89.22196178347053</v>
+        <v>60.64096142811765</v>
       </c>
       <c r="E2">
-        <v>36.44129767083152</v>
+        <v>24.76784058851357</v>
       </c>
       <c r="F2">
-        <v>28.04414095264186</v>
+        <v>19.06059490062582</v>
       </c>
       <c r="G2">
-        <v>160.0109913602477</v>
+        <v>108.7537211824599</v>
       </c>
       <c r="H2">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I2">
-        <v>2389.850859097034</v>
+        <v>1624.295754863191</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1937.441422174002</v>
+        <v>1316.8093169305</v>
       </c>
       <c r="C3">
-        <v>14.30397736533553</v>
+        <v>9.721899433068476</v>
       </c>
       <c r="D3">
-        <v>109.6155530482638</v>
+        <v>74.50175261168741</v>
       </c>
       <c r="E3">
-        <v>13.9334373447297</v>
+        <v>9.470056695608129</v>
       </c>
       <c r="F3">
-        <v>30.89608749019867</v>
+        <v>20.9989604837403</v>
       </c>
       <c r="G3">
-        <v>141.8965395081442</v>
+        <v>96.44197916180404</v>
       </c>
       <c r="H3">
-        <v>23.04032276712007</v>
+        <v>15.65967948119199</v>
       </c>
       <c r="I3">
-        <v>2271.127339697794</v>
+        <v>1543.603644797601</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1810.820162678442</v>
+        <v>1230.749396709462</v>
       </c>
       <c r="C4">
-        <v>11.22312070203249</v>
+        <v>7.627951862869113</v>
       </c>
       <c r="D4">
-        <v>54.8077765241319</v>
+        <v>37.2508763058437</v>
       </c>
       <c r="E4">
-        <v>12.86163447205818</v>
+        <v>8.741590795945967</v>
       </c>
       <c r="F4">
-        <v>24.55842851785021</v>
+        <v>16.69148141015254</v>
       </c>
       <c r="G4">
-        <v>135.8583888907764</v>
+        <v>92.33806515491878</v>
       </c>
       <c r="H4">
-        <v>20.03506327575658</v>
+        <v>13.61711259234086</v>
       </c>
       <c r="I4">
-        <v>2070.164575061048</v>
+        <v>1407.016474831533</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>2100.823692490854</v>
+        <v>1427.854375280226</v>
       </c>
       <c r="C5">
-        <v>12.10336546297621</v>
+        <v>8.226222597211786</v>
       </c>
       <c r="D5">
-        <v>73.92676833487562</v>
+        <v>50.24536804044036</v>
       </c>
       <c r="E5">
-        <v>22.50786032610182</v>
+        <v>15.29778389290544</v>
       </c>
       <c r="F5">
-        <v>29.62855569572897</v>
+        <v>20.13746466902276</v>
       </c>
       <c r="G5">
-        <v>111.705786421305</v>
+        <v>75.92240912737763</v>
       </c>
       <c r="H5">
-        <v>17.0298037843931</v>
+        <v>11.57454570348973</v>
       </c>
       <c r="I5">
-        <v>2367.725832516235</v>
+        <v>1609.258169310674</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1953.779649205688</v>
+        <v>1327.913822765473</v>
       </c>
       <c r="C6">
-        <v>12.54348784344807</v>
+        <v>8.525357964383122</v>
       </c>
       <c r="D6">
-        <v>90.49656123752013</v>
+        <v>61.50726087709076</v>
       </c>
       <c r="E6">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F6">
-        <v>31.68829486174221</v>
+        <v>21.53739536793877</v>
       </c>
       <c r="G6">
-        <v>114.7248617299889</v>
+        <v>77.97436613082031</v>
       </c>
       <c r="H6">
-        <v>15.02629745681744</v>
+        <v>10.21283444425565</v>
       </c>
       <c r="I6">
-        <v>2237.551604043291</v>
+        <v>1520.783423743881</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2095.377616813625</v>
+        <v>1424.152873335235</v>
       </c>
       <c r="C7">
-        <v>12.98361022391993</v>
+        <v>8.824493331554462</v>
       </c>
       <c r="D7">
-        <v>104.5171552320655</v>
+        <v>71.03655481579496</v>
       </c>
       <c r="E7">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F7">
-        <v>33.27270960482932</v>
+        <v>22.61426513633572</v>
       </c>
       <c r="G7">
-        <v>108.6867111126211</v>
+        <v>73.87045212393505</v>
       </c>
       <c r="H7">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I7">
-        <v>2387.15304582439</v>
+        <v>1622.462148121796</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2141.669260070067</v>
+        <v>1455.615639867657</v>
       </c>
       <c r="C8">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D8">
-        <v>101.9679563239664</v>
+        <v>69.30395591784875</v>
       </c>
       <c r="E8">
-        <v>21.43605745343032</v>
+        <v>14.56931799324327</v>
       </c>
       <c r="F8">
-        <v>31.05452896450737</v>
+        <v>21.10664746058</v>
       </c>
       <c r="G8">
-        <v>93.59133456920152</v>
+        <v>63.61066710672186</v>
       </c>
       <c r="H8">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I8">
-        <v>2408.614713800428</v>
+        <v>1637.048872666996</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2394.911779061187</v>
+        <v>1627.735480309733</v>
       </c>
       <c r="C9">
-        <v>11.00305951179656</v>
+        <v>7.478384179283442</v>
       </c>
       <c r="D9">
-        <v>89.22196178347053</v>
+        <v>60.64096142811765</v>
       </c>
       <c r="E9">
-        <v>34.2976919254885</v>
+        <v>23.31090878918924</v>
       </c>
       <c r="F9">
-        <v>27.56881652971573</v>
+        <v>18.73753397010673</v>
       </c>
       <c r="G9">
-        <v>99.62948518656934</v>
+        <v>67.7145811136071</v>
       </c>
       <c r="H9">
-        <v>11.01928480166612</v>
+        <v>7.48941192578747</v>
       </c>
       <c r="I9">
-        <v>2667.652078799893</v>
+        <v>1813.107261715824</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2600.50113587656</v>
+        <v>1767.467178733139</v>
       </c>
       <c r="C10">
-        <v>13.4237326043918</v>
+        <v>9.123628698725801</v>
       </c>
       <c r="D10">
-        <v>81.57436505917308</v>
+        <v>55.44316473427898</v>
       </c>
       <c r="E10">
-        <v>64.30817236029092</v>
+        <v>43.70795397972982</v>
       </c>
       <c r="F10">
-        <v>26.45972620955477</v>
+        <v>17.98372513222887</v>
       </c>
       <c r="G10">
-        <v>75.47688271709801</v>
+        <v>51.29892508606601</v>
       </c>
       <c r="H10">
-        <v>6.010518982726974</v>
+        <v>4.085133777702257</v>
       </c>
       <c r="I10">
-        <v>2867.754533809795</v>
+        <v>1949.10971014187</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2763.883406193411</v>
+        <v>1878.512237082864</v>
       </c>
       <c r="C11">
-        <v>8.362325228965384</v>
+        <v>5.683571976255418</v>
       </c>
       <c r="D11">
-        <v>70.10296997272688</v>
+        <v>47.64646969352102</v>
       </c>
       <c r="E11">
-        <v>68.595383850977</v>
+        <v>46.62181757837848</v>
       </c>
       <c r="F11">
-        <v>14.73505711071013</v>
+        <v>10.01488884609153</v>
       </c>
       <c r="G11">
-        <v>15.09537654341959</v>
+        <v>10.2597850172132</v>
       </c>
       <c r="H11">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I11">
-        <v>2947.786791046725</v>
+        <v>2003.504759601644</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2013.686481655199</v>
+        <v>1368.630344160372</v>
       </c>
       <c r="C12">
-        <v>7.041958087549796</v>
+        <v>4.786165874741403</v>
       </c>
       <c r="D12">
-        <v>71.3775694267764</v>
+        <v>48.51276914249412</v>
       </c>
       <c r="E12">
-        <v>41.8003120341891</v>
+        <v>28.41017008682439</v>
       </c>
       <c r="F12">
-        <v>13.15064236762302</v>
+        <v>8.938019077694589</v>
       </c>
       <c r="G12">
-        <v>33.2098283955231</v>
+        <v>22.57152703786904</v>
       </c>
       <c r="H12">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I12">
-        <v>2182.270298294436</v>
+        <v>1483.21070663923</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1756.359405906157</v>
+        <v>1193.734377259555</v>
       </c>
       <c r="C13">
-        <v>4.841346185190484</v>
+        <v>3.290489038884715</v>
       </c>
       <c r="D13">
-        <v>42.06178198363612</v>
+        <v>28.58788181611261</v>
       </c>
       <c r="E13">
-        <v>55.73374937891879</v>
+        <v>37.88022678243252</v>
       </c>
       <c r="F13">
-        <v>8.238956664052976</v>
+        <v>5.599722795664078</v>
       </c>
       <c r="G13">
-        <v>54.34335555631056</v>
+        <v>36.93522606196753</v>
       </c>
       <c r="H13">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I13">
-        <v>1926.587361493206</v>
+        <v>1309.432201902702</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1391.472335531855</v>
+        <v>945.7337469451663</v>
       </c>
       <c r="C14">
-        <v>4.181162614482692</v>
+        <v>2.841785988127709</v>
       </c>
       <c r="D14">
-        <v>43.3363814376857</v>
+        <v>29.45418126508573</v>
       </c>
       <c r="E14">
-        <v>35.36949479816003</v>
+        <v>24.0393746888514</v>
       </c>
       <c r="F14">
-        <v>5.545451600804889</v>
+        <v>3.769044189389286</v>
       </c>
       <c r="G14">
-        <v>42.26705432157486</v>
+        <v>28.72739804819696</v>
       </c>
       <c r="H14">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I14">
-        <v>1527.180646123503</v>
+        <v>1037.969809272903</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>983.0166597397254</v>
+        <v>668.1211010708513</v>
       </c>
       <c r="C15">
-        <v>5.94165213637014</v>
+        <v>4.038327456813058</v>
       </c>
       <c r="D15">
-        <v>28.04118798909075</v>
+        <v>19.05858787740841</v>
       </c>
       <c r="E15">
-        <v>20.36425458075879</v>
+        <v>13.84085209358111</v>
       </c>
       <c r="F15">
-        <v>4.753244229261331</v>
+        <v>3.230609305190815</v>
       </c>
       <c r="G15">
-        <v>36.22890370420703</v>
+        <v>24.62348404131168</v>
       </c>
       <c r="I15">
-        <v>1078.345902379413</v>
+        <v>732.9129618451564</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>604.5144001723521</v>
+        <v>410.8667158939861</v>
       </c>
       <c r="C16">
-        <v>4.841346185190484</v>
+        <v>3.290489038884715</v>
       </c>
       <c r="D16">
-        <v>19.11899181074369</v>
+        <v>12.99449173459664</v>
       </c>
       <c r="E16">
-        <v>10.71802872671516</v>
+        <v>7.284658996621636</v>
       </c>
       <c r="F16">
-        <v>3.644153909100354</v>
+        <v>2.476800467312959</v>
       </c>
       <c r="G16">
-        <v>33.2098283955231</v>
+        <v>22.57152703786904</v>
       </c>
       <c r="I16">
-        <v>676.0467491996249</v>
+        <v>459.4846831692711</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>469.7240271609492</v>
+        <v>319.2545427554622</v>
       </c>
       <c r="C17">
-        <v>6.821896897313867</v>
+        <v>4.636598191155734</v>
       </c>
       <c r="D17">
-        <v>6.3729972702479</v>
+        <v>4.331497244865547</v>
       </c>
       <c r="E17">
-        <v>2.143605745343031</v>
+        <v>1.456931799324327</v>
       </c>
       <c r="F17">
-        <v>2.059739166013244</v>
+        <v>1.39993069891602</v>
       </c>
       <c r="G17">
-        <v>39.24797901289095</v>
+        <v>26.67544104475432</v>
       </c>
       <c r="I17">
-        <v>526.3702452527582</v>
+        <v>357.7549417344782</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>306.3417568440971</v>
+        <v>208.2094844057362</v>
       </c>
       <c r="C18">
-        <v>6.16171332660607</v>
+        <v>4.187895140398728</v>
       </c>
       <c r="D18">
-        <v>11.47139508644621</v>
+        <v>7.796695040757986</v>
       </c>
       <c r="E18">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F18">
-        <v>3.802595383409066</v>
+        <v>2.584487444152651</v>
       </c>
       <c r="G18">
-        <v>24.15260246947134</v>
+        <v>16.41565602754112</v>
       </c>
       <c r="I18">
-        <v>356.2172746007158</v>
+        <v>242.1080816572353</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>182.4435351871513</v>
+        <v>124.000315157194</v>
       </c>
       <c r="C19">
-        <v>5.501529755898278</v>
+        <v>3.739192089641721</v>
       </c>
       <c r="D19">
-        <v>15.29519344859495</v>
+        <v>10.39559338767731</v>
       </c>
       <c r="E19">
-        <v>1.071802872671516</v>
+        <v>0.7284658996621637</v>
       </c>
       <c r="F19">
-        <v>1.742856217395822</v>
+        <v>1.184556745236632</v>
       </c>
       <c r="G19">
-        <v>51.32428024762665</v>
+        <v>34.88326905852487</v>
       </c>
       <c r="H19">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I19">
-        <v>258.3809508931263</v>
+        <v>175.6122479675537</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>220.5660649277501</v>
+        <v>149.9108287721301</v>
       </c>
       <c r="C20">
-        <v>4.181162614482692</v>
+        <v>2.841785988127709</v>
       </c>
       <c r="D20">
-        <v>19.11899181074369</v>
+        <v>12.99449173459664</v>
       </c>
       <c r="E20">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F20">
-        <v>3.485712434791644</v>
+        <v>2.369113490473265</v>
       </c>
       <c r="G20">
-        <v>42.26705432157486</v>
+        <v>28.72739804819696</v>
       </c>
       <c r="H20">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I20">
-        <v>293.8361478911454</v>
+        <v>199.7098713621282</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>378.5022595673735</v>
+        <v>257.2543851768652</v>
       </c>
       <c r="C21">
-        <v>1.98055071212338</v>
+        <v>1.346109152271019</v>
       </c>
       <c r="D21">
-        <v>26.76658853504117</v>
+        <v>18.19228842843529</v>
       </c>
       <c r="E21">
-        <v>7.50262010870061</v>
+        <v>5.099261297635146</v>
       </c>
       <c r="F21">
-        <v>6.179217498039731</v>
+        <v>4.199792096748061</v>
       </c>
       <c r="G21">
-        <v>69.43873209973016</v>
+        <v>47.19501107918072</v>
       </c>
       <c r="I21">
-        <v>490.3699685210086</v>
+        <v>333.2868472311355</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>761.0890758926685</v>
+        <v>517.2848968124732</v>
       </c>
       <c r="C22">
-        <v>1.760489521887449</v>
+        <v>1.196541468685351</v>
       </c>
       <c r="D22">
-        <v>39.51258307553697</v>
+        <v>26.85528291816639</v>
       </c>
       <c r="E22">
-        <v>31.08228330747395</v>
+        <v>21.12551109020275</v>
       </c>
       <c r="F22">
-        <v>17.42856217395822</v>
+        <v>11.84556745236632</v>
       </c>
       <c r="G22">
-        <v>126.8011629647247</v>
+        <v>86.18219414459088</v>
       </c>
       <c r="H22">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I22">
-        <v>979.6776632638254</v>
+        <v>665.8517051457191</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1445.933092304139</v>
+        <v>982.7487663950748</v>
       </c>
       <c r="C23">
-        <v>3.961101424246761</v>
+        <v>2.692218304542039</v>
       </c>
       <c r="D23">
-        <v>67.5537710646277</v>
+        <v>45.91387079557478</v>
       </c>
       <c r="E23">
-        <v>90.03144130440729</v>
+        <v>61.19113557162176</v>
       </c>
       <c r="F23">
-        <v>25.66751883801119</v>
+        <v>17.4452902480304</v>
       </c>
       <c r="G23">
-        <v>178.1254432123512</v>
+        <v>121.0654632031157</v>
       </c>
       <c r="H23">
-        <v>12.02103796545395</v>
+        <v>8.170267555404514</v>
       </c>
       <c r="I23">
-        <v>1823.293406113237</v>
+        <v>1239.227012073364</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2080.400908701247</v>
+        <v>1413.97374298651</v>
       </c>
       <c r="C24">
-        <v>5.94165213637014</v>
+        <v>4.038327456813058</v>
       </c>
       <c r="D24">
-        <v>71.3775694267764</v>
+        <v>48.51276914249412</v>
       </c>
       <c r="E24">
-        <v>97.53406141310789</v>
+        <v>66.2903968692569</v>
       </c>
       <c r="F24">
-        <v>27.09349210678959</v>
+        <v>18.41447303958766</v>
       </c>
       <c r="G24">
-        <v>226.4306481512939</v>
+        <v>153.8967752581979</v>
       </c>
       <c r="H24">
-        <v>18.03155694818092</v>
+        <v>12.25540133310677</v>
       </c>
       <c r="I24">
-        <v>2526.809888883766</v>
+        <v>1717.381886085967</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2261.482924969092</v>
+        <v>1537.048682657457</v>
       </c>
       <c r="C25">
-        <v>10.12281475085283</v>
+        <v>6.880113444940767</v>
       </c>
       <c r="D25">
-        <v>89.22196178347053</v>
+        <v>60.64096142811765</v>
       </c>
       <c r="E25">
-        <v>46.08752352487517</v>
+        <v>31.32403368547304</v>
       </c>
       <c r="F25">
-        <v>27.56881652971573</v>
+        <v>18.73753397010673</v>
       </c>
       <c r="G25">
-        <v>153.9728407428799</v>
+        <v>104.6498071755746</v>
       </c>
       <c r="H25">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I25">
-        <v>2596.470907611188</v>
+        <v>1764.727977398606</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2119.884957361152</v>
+        <v>1440.809632087694</v>
       </c>
       <c r="C26">
-        <v>10.78299832156063</v>
+        <v>7.328816495697773</v>
       </c>
       <c r="D26">
-        <v>86.6727628753714</v>
+        <v>58.90836253017147</v>
       </c>
       <c r="E26">
-        <v>37.51310054350304</v>
+        <v>25.49630648817573</v>
       </c>
       <c r="F26">
-        <v>29.15323127280283</v>
+        <v>19.81440373850367</v>
       </c>
       <c r="G26">
-        <v>169.0682172862994</v>
+        <v>114.9095921927878</v>
       </c>
       <c r="H26">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I26">
-        <v>2461.089292970993</v>
+        <v>1672.713958569967</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1997.348254623514</v>
+        <v>1357.525838325399</v>
       </c>
       <c r="C27">
-        <v>13.86385498486366</v>
+        <v>9.422764065897139</v>
       </c>
       <c r="D27">
-        <v>105.7917546861151</v>
+        <v>71.90285426476811</v>
       </c>
       <c r="E27">
-        <v>15.00524021740122</v>
+        <v>10.19852259527029</v>
       </c>
       <c r="F27">
-        <v>32.00517781035963</v>
+        <v>21.75276932161816</v>
       </c>
       <c r="G27">
-        <v>147.934690125512</v>
+        <v>100.5458931686894</v>
       </c>
       <c r="H27">
-        <v>21.03681643954441</v>
+        <v>14.2979682219579</v>
       </c>
       <c r="I27">
-        <v>2332.98578888731</v>
+        <v>1585.646609963601</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2024.578633009656</v>
+        <v>1376.033348050354</v>
       </c>
       <c r="C28">
-        <v>12.763549033684</v>
+        <v>8.674925647968792</v>
       </c>
       <c r="D28">
-        <v>82.84896451322267</v>
+        <v>56.30946418325211</v>
       </c>
       <c r="E28">
-        <v>15.00524021740122</v>
+        <v>10.19852259527029</v>
       </c>
       <c r="F28">
-        <v>28.67790684987672</v>
+        <v>19.49134280798459</v>
       </c>
       <c r="G28">
-        <v>156.9919160515638</v>
+        <v>106.7017641790173</v>
       </c>
       <c r="H28">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I28">
-        <v>2333.889000804646</v>
+        <v>1586.260490648869</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2113.077362764618</v>
+        <v>1436.182754656455</v>
       </c>
       <c r="C29">
-        <v>13.64379379462773</v>
+        <v>9.273196382311468</v>
       </c>
       <c r="D29">
-        <v>70.10296997272688</v>
+        <v>47.64646969352102</v>
       </c>
       <c r="E29">
-        <v>16.07704309007273</v>
+        <v>10.92698849493246</v>
       </c>
       <c r="F29">
-        <v>28.67790684987672</v>
+        <v>19.49134280798459</v>
       </c>
       <c r="G29">
-        <v>126.8011629647247</v>
+        <v>86.18219414459088</v>
       </c>
       <c r="H29">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I29">
-        <v>2376.394264746949</v>
+        <v>1615.149791216732</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2193.406979003737</v>
+        <v>1490.779908345071</v>
       </c>
       <c r="C30">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D30">
-        <v>58.63157488628063</v>
+        <v>39.84977465276303</v>
       </c>
       <c r="E30">
-        <v>18.22064883541576</v>
+        <v>12.38392029425678</v>
       </c>
       <c r="F30">
-        <v>35.64933171945999</v>
+        <v>24.22956978893112</v>
       </c>
       <c r="G30">
-        <v>141.8965395081442</v>
+        <v>96.44197916180404</v>
       </c>
       <c r="H30">
-        <v>12.02103796545395</v>
+        <v>8.170267555404514</v>
       </c>
       <c r="I30">
-        <v>2471.709416191232</v>
+        <v>1679.932074711857</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1971.479395156679</v>
+        <v>1339.943704086693</v>
       </c>
       <c r="C31">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D31">
-        <v>77.75056669702435</v>
+        <v>52.84426638735967</v>
       </c>
       <c r="E31">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F31">
-        <v>27.88569947833315</v>
+        <v>18.95290792378612</v>
       </c>
       <c r="G31">
-        <v>99.62948518656934</v>
+        <v>67.7145811136071</v>
       </c>
       <c r="H31">
-        <v>6.010518982726974</v>
+        <v>4.085133777702257</v>
       </c>
       <c r="I31">
-        <v>2213.93142148216</v>
+        <v>1504.729634396693</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2196.13001684235</v>
+        <v>1492.630659317567</v>
       </c>
       <c r="C32">
-        <v>10.56293713132469</v>
+        <v>7.179248812112105</v>
       </c>
       <c r="D32">
-        <v>117.2631497725613</v>
+        <v>79.69954930552606</v>
       </c>
       <c r="E32">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F32">
-        <v>32.00517781035963</v>
+        <v>21.75276932161816</v>
       </c>
       <c r="G32">
-        <v>93.59133456920152</v>
+        <v>63.61066710672186</v>
       </c>
       <c r="H32">
-        <v>14.02454429302961</v>
+        <v>9.531978814638601</v>
       </c>
       <c r="I32">
-        <v>2482.869612126914</v>
+        <v>1687.517258872103</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2207.022168196808</v>
+        <v>1500.033663207547</v>
       </c>
       <c r="C33">
-        <v>11.00305951179656</v>
+        <v>7.478384179283442</v>
       </c>
       <c r="D33">
-        <v>99.41875741586719</v>
+        <v>67.57135701990256</v>
       </c>
       <c r="E33">
-        <v>27.8668746894594</v>
+        <v>18.94011339121626</v>
       </c>
       <c r="F33">
-        <v>29.62855569572897</v>
+        <v>20.13746466902276</v>
       </c>
       <c r="G33">
-        <v>117.7439370386728</v>
+        <v>80.026323134263</v>
       </c>
       <c r="H33">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I33">
-        <v>2505.706143677575</v>
+        <v>1703.038428786257</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2634.539108859236</v>
+        <v>1790.60156588933</v>
       </c>
       <c r="C34">
-        <v>9.462631180145038</v>
+        <v>6.43141039418376</v>
       </c>
       <c r="D34">
-        <v>86.6727628753714</v>
+        <v>58.90836253017147</v>
       </c>
       <c r="E34">
-        <v>56.80555225159031</v>
+        <v>38.60869268209468</v>
       </c>
       <c r="F34">
-        <v>24.71686999215892</v>
+        <v>16.79916838699224</v>
       </c>
       <c r="G34">
-        <v>66.41965679104621</v>
+        <v>45.14305407573808</v>
       </c>
       <c r="H34">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I34">
-        <v>2888.634113587425</v>
+        <v>1963.300810254681</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2750.26821700034</v>
+        <v>1869.258482220387</v>
       </c>
       <c r="C35">
-        <v>7.262019277785725</v>
+        <v>4.935733558327072</v>
       </c>
       <c r="D35">
-        <v>71.3775694267764</v>
+        <v>48.51276914249412</v>
       </c>
       <c r="E35">
-        <v>63.23636948761941</v>
+        <v>42.97948808006766</v>
       </c>
       <c r="F35">
-        <v>19.17141839135404</v>
+        <v>13.03012419760296</v>
       </c>
       <c r="G35">
-        <v>42.26705432157486</v>
+        <v>28.72739804819696</v>
       </c>
       <c r="H35">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I35">
-        <v>2961.596673215754</v>
+        <v>2012.890840284012</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2069.508757346791</v>
+        <v>1406.570739096529</v>
       </c>
       <c r="C36">
-        <v>5.94165213637014</v>
+        <v>4.038327456813058</v>
       </c>
       <c r="D36">
-        <v>72.65216888082604</v>
+        <v>49.37906859146724</v>
       </c>
       <c r="E36">
-        <v>66.45177810563395</v>
+        <v>45.16488577905415</v>
       </c>
       <c r="F36">
-        <v>11.88311057315333</v>
+        <v>8.076523262977039</v>
       </c>
       <c r="G36">
-        <v>39.24797901289095</v>
+        <v>26.67544104475432</v>
       </c>
       <c r="H36">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I36">
-        <v>2270.694211874604</v>
+        <v>1543.30926337968</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1921.103195142317</v>
+        <v>1305.704811095528</v>
       </c>
       <c r="C37">
-        <v>5.501529755898278</v>
+        <v>3.739192089641721</v>
       </c>
       <c r="D37">
-        <v>42.06178198363612</v>
+        <v>28.58788181611261</v>
       </c>
       <c r="E37">
-        <v>65.37997523296244</v>
+        <v>44.43641987939199</v>
       </c>
       <c r="F37">
-        <v>10.29869583006622</v>
+        <v>6.999653494580102</v>
       </c>
       <c r="G37">
-        <v>51.32428024762665</v>
+        <v>34.88326905852487</v>
       </c>
       <c r="H37">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I37">
-        <v>2097.672964520082</v>
+        <v>1425.712938693014</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1527.624227462565</v>
+        <v>1038.271295569938</v>
       </c>
       <c r="C38">
-        <v>3.300917853538966</v>
+        <v>2.243515253785033</v>
       </c>
       <c r="D38">
-        <v>34.41418525933866</v>
+        <v>23.39008512227394</v>
       </c>
       <c r="E38">
-        <v>45.01572065220365</v>
+        <v>30.59556778581088</v>
       </c>
       <c r="F38">
-        <v>6.654541920965865</v>
+        <v>4.522853027267143</v>
       </c>
       <c r="G38">
-        <v>51.32428024762665</v>
+        <v>34.88326905852487</v>
       </c>
       <c r="H38">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I38">
-        <v>1670.337379723814</v>
+        <v>1135.268297076834</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>1093.299692203601</v>
+        <v>743.0765154569166</v>
       </c>
       <c r="C39">
-        <v>4.621284994954554</v>
+        <v>3.140921355299045</v>
       </c>
       <c r="D39">
-        <v>16.56979290264453</v>
+        <v>11.26189283665042</v>
       </c>
       <c r="E39">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F39">
-        <v>4.753244229261331</v>
+        <v>3.230609305190815</v>
       </c>
       <c r="G39">
-        <v>30.19075308683919</v>
+        <v>20.51957003442639</v>
       </c>
       <c r="H39">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I39">
-        <v>1171.732478616751</v>
+        <v>796.3844620712533</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>643.9984488322581</v>
+        <v>437.70260499517</v>
       </c>
       <c r="C40">
-        <v>5.281468565662347</v>
+        <v>3.589624406056052</v>
       </c>
       <c r="D40">
-        <v>17.8443923566941</v>
+        <v>12.12819228562353</v>
       </c>
       <c r="E40">
-        <v>8.574422981372125</v>
+        <v>5.827727197297309</v>
       </c>
       <c r="F40">
-        <v>3.802595383409066</v>
+        <v>2.584487444152651</v>
       </c>
       <c r="G40">
-        <v>42.26705432157486</v>
+        <v>28.72739804819696</v>
       </c>
       <c r="I40">
-        <v>721.7683824409705</v>
+        <v>490.5600343764964</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>496.9544055470911</v>
+        <v>337.7620524804163</v>
       </c>
       <c r="C41">
-        <v>5.501529755898278</v>
+        <v>3.739192089641721</v>
       </c>
       <c r="D41">
-        <v>6.3729972702479</v>
+        <v>4.331497244865547</v>
       </c>
       <c r="E41">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F41">
-        <v>3.01038801186551</v>
+        <v>2.046052559954184</v>
       </c>
       <c r="G41">
-        <v>51.32428024762665</v>
+        <v>34.88326905852487</v>
       </c>
       <c r="I41">
-        <v>567.4508123234156</v>
+        <v>385.6759270320514</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>322.6799838757823</v>
+        <v>219.3139902407088</v>
       </c>
       <c r="C42">
-        <v>6.16171332660607</v>
+        <v>4.187895140398728</v>
       </c>
       <c r="D42">
-        <v>10.19679563239663</v>
+        <v>6.930395591784873</v>
       </c>
       <c r="E42">
-        <v>5.359014363357579</v>
+        <v>3.642329498310818</v>
       </c>
       <c r="F42">
-        <v>3.168829486174221</v>
+        <v>2.153739536793876</v>
       </c>
       <c r="G42">
-        <v>45.28612963025881</v>
+        <v>30.77935505163959</v>
       </c>
       <c r="I42">
-        <v>392.8524663145756</v>
+        <v>267.0077050596366</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>226.0121406049785</v>
+        <v>153.6123307171209</v>
       </c>
       <c r="C43">
-        <v>6.821896897313867</v>
+        <v>4.636598191155734</v>
       </c>
       <c r="D43">
-        <v>19.11899181074369</v>
+        <v>12.99449173459664</v>
       </c>
       <c r="E43">
-        <v>2.143605745343031</v>
+        <v>1.456931799324327</v>
       </c>
       <c r="F43">
-        <v>2.535063588939378</v>
+        <v>1.722991629435102</v>
       </c>
       <c r="G43">
-        <v>30.19075308683919</v>
+        <v>20.51957003442639</v>
       </c>
       <c r="H43">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I43">
-        <v>287.8242048979455</v>
+        <v>195.6237697356761</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>250.5194811525062</v>
+        <v>170.2690894695798</v>
       </c>
       <c r="C44">
-        <v>6.821896897313867</v>
+        <v>4.636598191155734</v>
       </c>
       <c r="D44">
-        <v>12.7459945404958</v>
+        <v>8.662994489731094</v>
       </c>
       <c r="E44">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F44">
-        <v>3.485712434791644</v>
+        <v>2.369113490473265</v>
       </c>
       <c r="G44">
-        <v>18.11445185210352</v>
+        <v>12.31174202065584</v>
       </c>
       <c r="I44">
-        <v>295.9747483678971</v>
+        <v>201.1634012602443</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>337.6566919881607</v>
+        <v>229.4931205894337</v>
       </c>
       <c r="C45">
-        <v>2.200611902359311</v>
+        <v>1.495676835856689</v>
       </c>
       <c r="D45">
-        <v>24.21738962694202</v>
+        <v>16.45968953048909</v>
       </c>
       <c r="E45">
-        <v>6.430817236029091</v>
+        <v>4.370795397972984</v>
       </c>
       <c r="F45">
-        <v>5.86233454942231</v>
+        <v>3.984418143068672</v>
       </c>
       <c r="G45">
-        <v>39.24797901289095</v>
+        <v>26.67544104475432</v>
       </c>
       <c r="H45">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I45">
-        <v>419.6228369709556</v>
+        <v>285.2025640600436</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>784.2348975208891</v>
+        <v>533.0162800786845</v>
       </c>
       <c r="C46">
-        <v>1.760489521887449</v>
+        <v>1.196541468685351</v>
       </c>
       <c r="D46">
-        <v>38.23798362148739</v>
+        <v>25.98898346919328</v>
       </c>
       <c r="E46">
-        <v>32.15408618014546</v>
+        <v>21.85397698986491</v>
       </c>
       <c r="F46">
-        <v>18.06232807119306</v>
+        <v>12.2763153597251</v>
       </c>
       <c r="G46">
-        <v>132.8393135820924</v>
+        <v>90.28610815147616</v>
       </c>
       <c r="H46">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I46">
-        <v>1009.29260482527</v>
+        <v>685.9799167768634</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1490.863216641274</v>
+        <v>1013.286157441249</v>
       </c>
       <c r="C47">
-        <v>3.74104023401083</v>
+        <v>2.54265062095637</v>
       </c>
       <c r="D47">
-        <v>65.00457215652852</v>
+        <v>44.18127189762859</v>
       </c>
       <c r="E47">
-        <v>93.24684992242183</v>
+        <v>63.37653327060823</v>
       </c>
       <c r="F47">
-        <v>26.61816768386346</v>
+        <v>18.09141210906857</v>
       </c>
       <c r="G47">
-        <v>187.182669138403</v>
+        <v>127.2213342134437</v>
       </c>
       <c r="H47">
-        <v>11.01928480166612</v>
+        <v>7.48941192578747</v>
       </c>
       <c r="I47">
-        <v>1877.675800578168</v>
+        <v>1276.188771478742</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2144.392297908681</v>
+        <v>1457.466390840154</v>
       </c>
       <c r="C48">
-        <v>5.721590946134209</v>
+        <v>3.888759773227389</v>
       </c>
       <c r="D48">
-        <v>68.82837051867732</v>
+        <v>46.78017024454789</v>
       </c>
       <c r="E48">
-        <v>101.821272903794</v>
+        <v>69.20426046790556</v>
       </c>
       <c r="F48">
-        <v>28.04414095264186</v>
+        <v>19.06059490062582</v>
       </c>
       <c r="G48">
-        <v>238.5069493860297</v>
+        <v>162.1046032719686</v>
       </c>
       <c r="H48">
-        <v>17.0298037843931</v>
+        <v>11.57454570348973</v>
       </c>
       <c r="I48">
-        <v>2604.344426400351</v>
+        <v>1770.079325201918</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2332.28190877306</v>
+        <v>1585.168207942338</v>
       </c>
       <c r="C49">
-        <v>9.902753560616901</v>
+        <v>6.730545761355097</v>
       </c>
       <c r="D49">
-        <v>86.6727628753714</v>
+        <v>58.90836253017147</v>
       </c>
       <c r="E49">
-        <v>48.23112927021819</v>
+        <v>32.78096548479736</v>
       </c>
       <c r="F49">
-        <v>28.67790684987672</v>
+        <v>19.49134280798459</v>
       </c>
       <c r="G49">
-        <v>163.0300666689316</v>
+        <v>110.8056781859026</v>
       </c>
       <c r="H49">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I49">
-        <v>2675.808800144591</v>
+        <v>1818.651092119869</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1397.316984234052</v>
+        <v>404.4284792753419</v>
       </c>
       <c r="C2">
-        <v>7.627951862869113</v>
+        <v>11.22312070203249</v>
       </c>
       <c r="D2">
-        <v>60.64096142811765</v>
+        <v>87.66865560289472</v>
       </c>
       <c r="E2">
-        <v>24.76784058851357</v>
+        <v>36.44129767083152</v>
       </c>
       <c r="F2">
-        <v>19.06059490062582</v>
+        <v>25.17559660531643</v>
       </c>
       <c r="G2">
-        <v>108.7537211824599</v>
+        <v>159.0172525705745</v>
       </c>
       <c r="H2">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I2">
-        <v>1624.295754863191</v>
+        <v>732.9701809010819</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1316.8093169305</v>
+        <v>381.1269708667626</v>
       </c>
       <c r="C3">
-        <v>9.721899433068476</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D3">
-        <v>74.50175261168741</v>
+        <v>107.7072054549849</v>
       </c>
       <c r="E3">
-        <v>9.470056695608129</v>
+        <v>13.9334373447297</v>
       </c>
       <c r="F3">
-        <v>20.9989604837403</v>
+        <v>27.73582676856896</v>
       </c>
       <c r="G3">
-        <v>96.44197916180404</v>
+        <v>141.0152994493773</v>
       </c>
       <c r="H3">
-        <v>15.65967948119199</v>
+        <v>23.04032276712007</v>
       </c>
       <c r="I3">
-        <v>1543.603644797601</v>
+        <v>708.8630400168789</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1230.749396709462</v>
+        <v>356.2184618782812</v>
       </c>
       <c r="C4">
-        <v>7.627951862869113</v>
+        <v>11.22312070203249</v>
       </c>
       <c r="D4">
-        <v>37.2508763058437</v>
+        <v>53.85360272749246</v>
       </c>
       <c r="E4">
-        <v>8.741590795945967</v>
+        <v>12.86163447205818</v>
       </c>
       <c r="F4">
-        <v>16.69148141015254</v>
+        <v>22.04642640578558</v>
       </c>
       <c r="G4">
-        <v>92.33806515491878</v>
+        <v>135.0146484089782</v>
       </c>
       <c r="H4">
-        <v>13.61711259234086</v>
+        <v>20.03506327575658</v>
       </c>
       <c r="I4">
-        <v>1407.016474831533</v>
+        <v>611.2529578703848</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1427.854375280226</v>
+        <v>413.266982464803</v>
       </c>
       <c r="C5">
-        <v>8.226222597211786</v>
+        <v>12.10336546297621</v>
       </c>
       <c r="D5">
-        <v>50.24536804044036</v>
+        <v>72.639743213827</v>
       </c>
       <c r="E5">
-        <v>15.29778389290544</v>
+        <v>22.50786032610182</v>
       </c>
       <c r="F5">
-        <v>20.13746466902276</v>
+        <v>26.59794669601229</v>
       </c>
       <c r="G5">
-        <v>75.92240912737763</v>
+        <v>111.0120442473821</v>
       </c>
       <c r="H5">
-        <v>11.57454570348973</v>
+        <v>17.0298037843931</v>
       </c>
       <c r="I5">
-        <v>1609.258169310674</v>
+        <v>675.1577461954955</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1327.913822765473</v>
+        <v>384.3409720265665</v>
       </c>
       <c r="C6">
-        <v>8.525357964383122</v>
+        <v>12.54348784344807</v>
       </c>
       <c r="D6">
-        <v>61.50726087709076</v>
+        <v>88.92106496865028</v>
       </c>
       <c r="E6">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F6">
-        <v>21.53739536793877</v>
+        <v>28.44700181391687</v>
       </c>
       <c r="G6">
-        <v>77.97436613082031</v>
+        <v>114.0123697675817</v>
       </c>
       <c r="H6">
-        <v>10.21283444425565</v>
+        <v>15.02629745681744</v>
       </c>
       <c r="I6">
-        <v>1520.783423743881</v>
+        <v>662.5836455850682</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1424.152873335235</v>
+        <v>412.1956487448682</v>
       </c>
       <c r="C7">
-        <v>8.824493331554462</v>
+        <v>12.98361022391993</v>
       </c>
       <c r="D7">
-        <v>71.03655481579496</v>
+        <v>102.6975679919623</v>
       </c>
       <c r="E7">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F7">
-        <v>22.61426513633572</v>
+        <v>29.86935190461272</v>
       </c>
       <c r="G7">
-        <v>73.87045212393505</v>
+        <v>108.0117187271826</v>
       </c>
       <c r="H7">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I7">
-        <v>1622.462148121796</v>
+        <v>698.0731404298747</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1455.615639867657</v>
+        <v>421.3019853643128</v>
       </c>
       <c r="C8">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D8">
-        <v>69.30395591784875</v>
+        <v>100.1927492604511</v>
       </c>
       <c r="E8">
-        <v>14.56931799324327</v>
+        <v>21.43605745343032</v>
       </c>
       <c r="F8">
-        <v>21.10664746058</v>
+        <v>27.87806177763854</v>
       </c>
       <c r="G8">
-        <v>63.61066710672186</v>
+        <v>93.01009112618502</v>
       </c>
       <c r="H8">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I8">
-        <v>1637.048872666996</v>
+        <v>682.7145214012728</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1627.735480309733</v>
+        <v>471.1190033412753</v>
       </c>
       <c r="C9">
-        <v>7.478384179283442</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D9">
-        <v>60.64096142811765</v>
+        <v>87.66865560289472</v>
       </c>
       <c r="E9">
-        <v>23.31090878918924</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F9">
-        <v>18.73753397010673</v>
+        <v>24.74889157810768</v>
       </c>
       <c r="G9">
-        <v>67.7145811136071</v>
+        <v>99.01074216658409</v>
       </c>
       <c r="H9">
-        <v>7.48941192578747</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I9">
-        <v>1813.107261715824</v>
+        <v>738.8673289278129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1767.467178733139</v>
+        <v>511.5618512688097</v>
       </c>
       <c r="C10">
-        <v>9.123628698725801</v>
+        <v>13.4237326043918</v>
       </c>
       <c r="D10">
-        <v>55.44316473427898</v>
+        <v>80.15419940836088</v>
       </c>
       <c r="E10">
-        <v>43.70795397972982</v>
+        <v>64.30817236029092</v>
       </c>
       <c r="F10">
-        <v>17.98372513222887</v>
+        <v>23.7532465146206</v>
       </c>
       <c r="G10">
-        <v>51.29892508606601</v>
+        <v>75.00813800498791</v>
       </c>
       <c r="H10">
-        <v>4.085133777702257</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I10">
-        <v>1949.10971014187</v>
+        <v>774.2198591441888</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1878.512237082864</v>
+        <v>543.7018628668498</v>
       </c>
       <c r="C11">
-        <v>5.683571976255418</v>
+        <v>8.362325228965384</v>
       </c>
       <c r="D11">
-        <v>47.64646969352102</v>
+        <v>68.88251511656009</v>
       </c>
       <c r="E11">
-        <v>46.62181757837848</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F11">
-        <v>10.01488884609153</v>
+        <v>13.22785584347135</v>
       </c>
       <c r="G11">
-        <v>10.2597850172132</v>
+        <v>15.00162760099759</v>
       </c>
       <c r="H11">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I11">
-        <v>2003.504759601644</v>
+        <v>724.7838426543359</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1368.630344160372</v>
+        <v>396.125642945848</v>
       </c>
       <c r="C12">
-        <v>4.786165874741403</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D12">
-        <v>48.51276914249412</v>
+        <v>70.13492448231571</v>
       </c>
       <c r="E12">
-        <v>28.41017008682439</v>
+        <v>41.8003120341891</v>
       </c>
       <c r="F12">
-        <v>8.938019077694589</v>
+        <v>11.8055057527755</v>
       </c>
       <c r="G12">
-        <v>22.57152703786904</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="H12">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I12">
-        <v>1483.21070663923</v>
+        <v>561.9154303524484</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1193.734377259555</v>
+        <v>345.5051246789344</v>
       </c>
       <c r="C13">
-        <v>3.290489038884715</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D13">
-        <v>28.58788181611261</v>
+        <v>41.32950906993604</v>
       </c>
       <c r="E13">
-        <v>37.88022678243252</v>
+        <v>55.73374937891879</v>
       </c>
       <c r="F13">
-        <v>5.599722795664078</v>
+        <v>7.396220471618386</v>
       </c>
       <c r="G13">
-        <v>36.93522606196753</v>
+        <v>54.00585936359131</v>
       </c>
       <c r="H13">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I13">
-        <v>1309.432201902702</v>
+        <v>513.8205749671286</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>945.7337469451663</v>
+        <v>273.7257654433107</v>
       </c>
       <c r="C14">
-        <v>2.841785988127709</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D14">
-        <v>29.45418126508573</v>
+        <v>42.5819184356917</v>
       </c>
       <c r="E14">
-        <v>24.0393746888514</v>
+        <v>35.36949479816003</v>
       </c>
       <c r="F14">
-        <v>3.769044189389286</v>
+        <v>4.978225317435454</v>
       </c>
       <c r="G14">
-        <v>28.72739804819696</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H14">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I14">
-        <v>1037.969809272903</v>
+        <v>407.8498897108129</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>668.1211010708513</v>
+        <v>193.3757364482098</v>
       </c>
       <c r="C15">
-        <v>4.038327456813058</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D15">
-        <v>19.05858787740841</v>
+        <v>27.55300604662404</v>
       </c>
       <c r="E15">
-        <v>13.84085209358111</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F15">
-        <v>3.230609305190815</v>
+        <v>4.267050272087532</v>
       </c>
       <c r="G15">
-        <v>24.62348404131168</v>
+        <v>36.00390624239419</v>
       </c>
       <c r="I15">
-        <v>732.9129618451564</v>
+        <v>287.5056057264445</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>410.8667158939861</v>
+        <v>118.9180429127495</v>
       </c>
       <c r="C16">
-        <v>3.290489038884715</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D16">
-        <v>12.99449173459664</v>
+        <v>18.78614048633457</v>
       </c>
       <c r="E16">
-        <v>7.284658996621636</v>
+        <v>10.71802872671516</v>
       </c>
       <c r="F16">
-        <v>2.476800467312959</v>
+        <v>3.271405208600441</v>
       </c>
       <c r="G16">
-        <v>22.57152703786904</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="I16">
-        <v>459.4846831692711</v>
+        <v>189.5385442417848</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>319.2545427554622</v>
+        <v>92.40253334436616</v>
       </c>
       <c r="C17">
-        <v>4.636598191155734</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D17">
-        <v>4.331497244865547</v>
+        <v>6.262046828778192</v>
       </c>
       <c r="E17">
-        <v>1.456931799324327</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F17">
-        <v>1.39993069891602</v>
+        <v>1.849055117904596</v>
       </c>
       <c r="G17">
-        <v>26.67544104475432</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="I17">
-        <v>357.7549417344782</v>
+        <v>148.4833696962996</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>208.2094844057362</v>
+        <v>60.26252174632577</v>
       </c>
       <c r="C18">
-        <v>4.187895140398728</v>
+        <v>6.16171332660607</v>
       </c>
       <c r="D18">
-        <v>7.796695040757986</v>
+        <v>11.27168429180075</v>
       </c>
       <c r="E18">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F18">
-        <v>2.584487444152651</v>
+        <v>3.413640217670024</v>
       </c>
       <c r="G18">
-        <v>16.41565602754112</v>
+        <v>24.00260416159614</v>
       </c>
       <c r="I18">
-        <v>242.1080816572353</v>
+        <v>109.3993752346848</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>124.000315157194</v>
+        <v>35.88967961781177</v>
       </c>
       <c r="C19">
-        <v>3.739192089641721</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D19">
-        <v>10.39559338767731</v>
+        <v>15.02891238906766</v>
       </c>
       <c r="E19">
-        <v>0.7284658996621637</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F19">
-        <v>1.184556745236632</v>
+        <v>1.564585099765428</v>
       </c>
       <c r="G19">
-        <v>34.88326905852487</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="H19">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I19">
-        <v>175.6122479675537</v>
+        <v>111.0637967423943</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>149.9108287721301</v>
+        <v>43.38901565735454</v>
       </c>
       <c r="C20">
-        <v>2.841785988127709</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D20">
-        <v>12.99449173459664</v>
+        <v>18.78614048633457</v>
       </c>
       <c r="E20">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F20">
-        <v>2.369113490473265</v>
+        <v>3.129170199530857</v>
       </c>
       <c r="G20">
-        <v>28.72739804819696</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H20">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I20">
-        <v>199.7098713621282</v>
+        <v>115.7072080222983</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>257.2543851768652</v>
+        <v>74.45769353546035</v>
       </c>
       <c r="C21">
-        <v>1.346109152271019</v>
+        <v>1.98055071212338</v>
       </c>
       <c r="D21">
-        <v>18.19228842843529</v>
+        <v>26.30059668086841</v>
       </c>
       <c r="E21">
-        <v>5.099261297635146</v>
+        <v>7.50262010870061</v>
       </c>
       <c r="F21">
-        <v>4.199792096748061</v>
+        <v>5.547165353713789</v>
       </c>
       <c r="G21">
-        <v>47.19501107918072</v>
+        <v>69.00748696458889</v>
       </c>
       <c r="I21">
-        <v>333.2868472311355</v>
+        <v>184.7961133554554</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>517.2848968124732</v>
+        <v>149.7188873608716</v>
       </c>
       <c r="C22">
-        <v>1.196541468685351</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D22">
-        <v>26.85528291816639</v>
+        <v>38.82469033842478</v>
       </c>
       <c r="E22">
-        <v>21.12551109020275</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F22">
-        <v>11.84556745236632</v>
+        <v>15.64585099765428</v>
       </c>
       <c r="G22">
-        <v>86.18219414459088</v>
+        <v>126.0136718483797</v>
       </c>
       <c r="H22">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I22">
-        <v>665.8517051457191</v>
+        <v>365.0493797022675</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>982.7487663950748</v>
+        <v>284.4391026426576</v>
       </c>
       <c r="C23">
-        <v>2.692218304542039</v>
+        <v>3.961101424246761</v>
       </c>
       <c r="D23">
-        <v>45.91387079557478</v>
+        <v>66.37769638504882</v>
       </c>
       <c r="E23">
-        <v>61.19113557162176</v>
+        <v>90.03144130440729</v>
       </c>
       <c r="F23">
-        <v>17.4452902480304</v>
+        <v>23.04207146927267</v>
       </c>
       <c r="G23">
-        <v>121.0654632031157</v>
+        <v>177.0192056917714</v>
       </c>
       <c r="H23">
-        <v>8.170267555404514</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I23">
-        <v>1239.227012073364</v>
+        <v>656.8916568828585</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1413.97374298651</v>
+        <v>409.2494810150478</v>
       </c>
       <c r="C24">
-        <v>4.038327456813058</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D24">
-        <v>48.51276914249412</v>
+        <v>70.13492448231571</v>
       </c>
       <c r="E24">
-        <v>66.2903968692569</v>
+        <v>97.53406141310789</v>
       </c>
       <c r="F24">
-        <v>18.41447303958766</v>
+        <v>24.32218655089893</v>
       </c>
       <c r="G24">
-        <v>153.8967752581979</v>
+        <v>225.0244140149637</v>
       </c>
       <c r="H24">
-        <v>12.25540133310677</v>
+        <v>18.03155694818092</v>
       </c>
       <c r="I24">
-        <v>1717.381886085967</v>
+        <v>850.238276560885</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1537.048682657457</v>
+        <v>444.8713272028758</v>
       </c>
       <c r="C25">
-        <v>6.880113444940767</v>
+        <v>10.12281475085283</v>
       </c>
       <c r="D25">
-        <v>60.64096142811765</v>
+        <v>87.66865560289472</v>
       </c>
       <c r="E25">
-        <v>31.32403368547304</v>
+        <v>46.08752352487517</v>
       </c>
       <c r="F25">
-        <v>18.73753397010673</v>
+        <v>24.74889157810768</v>
       </c>
       <c r="G25">
-        <v>104.6498071755746</v>
+        <v>153.0166015301753</v>
       </c>
       <c r="H25">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I25">
-        <v>1764.727977398606</v>
+        <v>774.5298395000842</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1440.809632087694</v>
+        <v>417.0166504845743</v>
       </c>
       <c r="C26">
-        <v>7.328816495697773</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D26">
-        <v>58.90836253017147</v>
+        <v>85.16383687138341</v>
       </c>
       <c r="E26">
-        <v>25.49630648817573</v>
+        <v>37.51310054350304</v>
       </c>
       <c r="F26">
-        <v>19.81440373850367</v>
+        <v>26.17124166880353</v>
       </c>
       <c r="G26">
-        <v>114.9095921927878</v>
+        <v>168.0182291311729</v>
       </c>
       <c r="H26">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I26">
-        <v>1672.713958569967</v>
+        <v>752.6800823313004</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1357.525838325399</v>
+        <v>392.911641786044</v>
       </c>
       <c r="C27">
-        <v>9.422764065897139</v>
+        <v>13.86385498486366</v>
       </c>
       <c r="D27">
-        <v>71.90285426476811</v>
+        <v>103.949977357718</v>
       </c>
       <c r="E27">
-        <v>10.19852259527029</v>
+        <v>15.00524021740122</v>
       </c>
       <c r="F27">
-        <v>21.75276932161816</v>
+        <v>28.73147183205604</v>
       </c>
       <c r="G27">
-        <v>100.5458931686894</v>
+        <v>147.0159504897763</v>
       </c>
       <c r="H27">
-        <v>14.2979682219579</v>
+        <v>21.03681643954441</v>
       </c>
       <c r="I27">
-        <v>1585.646609963601</v>
+        <v>722.5149531074036</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1376.033348050354</v>
+        <v>398.2683103857173</v>
       </c>
       <c r="C28">
-        <v>8.674925647968792</v>
+        <v>12.763549033684</v>
       </c>
       <c r="D28">
-        <v>56.30946418325211</v>
+        <v>81.40660877411648</v>
       </c>
       <c r="E28">
-        <v>10.19852259527029</v>
+        <v>15.00524021740122</v>
       </c>
       <c r="F28">
-        <v>19.49134280798459</v>
+        <v>25.74453664159478</v>
       </c>
       <c r="G28">
-        <v>106.7017641790173</v>
+        <v>156.0169270503749</v>
       </c>
       <c r="H28">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I28">
-        <v>1586.260490648869</v>
+        <v>702.2279632321305</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1436.182754656455</v>
+        <v>415.677483334656</v>
       </c>
       <c r="C29">
-        <v>9.273196382311468</v>
+        <v>13.64379379462773</v>
       </c>
       <c r="D29">
-        <v>47.64646969352102</v>
+        <v>68.88251511656009</v>
       </c>
       <c r="E29">
-        <v>10.92698849493246</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F29">
-        <v>19.49134280798459</v>
+        <v>25.74453664159478</v>
       </c>
       <c r="G29">
-        <v>86.18219414459088</v>
+        <v>126.0136718483797</v>
       </c>
       <c r="H29">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I29">
-        <v>1615.149791216732</v>
+        <v>674.0530691361937</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1490.779908345071</v>
+        <v>431.4796557036923</v>
       </c>
       <c r="C30">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D30">
-        <v>39.84977465276303</v>
+        <v>57.61083082475934</v>
       </c>
       <c r="E30">
-        <v>12.38392029425678</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F30">
-        <v>24.22956978893112</v>
+        <v>32.00287704065648</v>
       </c>
       <c r="G30">
-        <v>96.44197916180404</v>
+        <v>141.0152994493773</v>
       </c>
       <c r="H30">
-        <v>8.170267555404514</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I30">
-        <v>1679.932074711857</v>
+        <v>704.2336540920953</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1339.943704086693</v>
+        <v>387.8228066163541</v>
       </c>
       <c r="C31">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D31">
-        <v>52.84426638735967</v>
+        <v>76.39697131109392</v>
       </c>
       <c r="E31">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F31">
-        <v>18.95290792378612</v>
+        <v>25.03336159624686</v>
       </c>
       <c r="G31">
-        <v>67.7145811136071</v>
+        <v>99.01074216658409</v>
       </c>
       <c r="H31">
-        <v>4.085133777702257</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I31">
-        <v>1504.729634396693</v>
+        <v>625.4501566538336</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1492.630659317567</v>
+        <v>432.0153225636597</v>
       </c>
       <c r="C32">
-        <v>7.179248812112105</v>
+        <v>10.56293713132469</v>
       </c>
       <c r="D32">
-        <v>79.69954930552606</v>
+        <v>115.2216616495187</v>
       </c>
       <c r="E32">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F32">
-        <v>21.75276932161816</v>
+        <v>28.73147183205604</v>
       </c>
       <c r="G32">
-        <v>63.61066710672186</v>
+        <v>93.01009112618502</v>
       </c>
       <c r="H32">
-        <v>9.531978814638601</v>
+        <v>14.02454429302961</v>
       </c>
       <c r="I32">
-        <v>1687.517258872103</v>
+        <v>712.858480303861</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1500.033663207547</v>
+        <v>434.1579900035293</v>
       </c>
       <c r="C33">
-        <v>7.478384179283442</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D33">
-        <v>67.57135701990256</v>
+        <v>97.68793052893979</v>
       </c>
       <c r="E33">
-        <v>18.94011339121626</v>
+        <v>27.8668746894594</v>
       </c>
       <c r="F33">
-        <v>20.13746466902276</v>
+        <v>26.59794669601229</v>
       </c>
       <c r="G33">
-        <v>80.026323134263</v>
+        <v>117.0126952877812</v>
       </c>
       <c r="H33">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I33">
-        <v>1703.038428786257</v>
+        <v>727.3492878467604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1790.60156588933</v>
+        <v>518.2576870184018</v>
       </c>
       <c r="C34">
-        <v>6.43141039418376</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D34">
-        <v>58.90836253017147</v>
+        <v>85.16383687138341</v>
       </c>
       <c r="E34">
-        <v>38.60869268209468</v>
+        <v>56.80555225159031</v>
       </c>
       <c r="F34">
-        <v>16.79916838699224</v>
+        <v>22.18866141485515</v>
       </c>
       <c r="G34">
-        <v>45.14305407573808</v>
+        <v>66.00716144438935</v>
       </c>
       <c r="H34">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I34">
-        <v>1963.300810254681</v>
+        <v>767.9030618186434</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1869.258482220387</v>
+        <v>541.0235285670133</v>
       </c>
       <c r="C35">
-        <v>4.935733558327072</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D35">
-        <v>48.51276914249412</v>
+        <v>70.13492448231571</v>
       </c>
       <c r="E35">
-        <v>42.97948808006766</v>
+        <v>63.23636948761941</v>
       </c>
       <c r="F35">
-        <v>13.03012419760296</v>
+        <v>17.21043609741971</v>
       </c>
       <c r="G35">
-        <v>28.72739804819696</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H35">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I35">
-        <v>2012.890840284012</v>
+        <v>748.8858605052496</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1406.570739096529</v>
+        <v>407.1068135751785</v>
       </c>
       <c r="C36">
-        <v>4.038327456813058</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D36">
-        <v>49.37906859146724</v>
+        <v>71.38733384807138</v>
       </c>
       <c r="E36">
-        <v>45.16488577905415</v>
+        <v>66.45177810563395</v>
       </c>
       <c r="F36">
-        <v>8.076523262977039</v>
+        <v>10.66762568021883</v>
       </c>
       <c r="G36">
-        <v>26.67544104475432</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H36">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I36">
-        <v>1543.30926337968</v>
+        <v>605.5682009270057</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1305.704811095528</v>
+        <v>377.9129697069584</v>
       </c>
       <c r="C37">
-        <v>3.739192089641721</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D37">
-        <v>28.58788181611261</v>
+        <v>41.32950906993604</v>
       </c>
       <c r="E37">
-        <v>44.43641987939199</v>
+        <v>65.37997523296244</v>
       </c>
       <c r="F37">
-        <v>6.999653494580102</v>
+        <v>9.245275589522986</v>
       </c>
       <c r="G37">
-        <v>34.88326905852487</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="H37">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I37">
-        <v>1425.712938693014</v>
+        <v>552.3782995262457</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1038.271295569938</v>
+        <v>300.5091084416778</v>
       </c>
       <c r="C38">
-        <v>2.243515253785033</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D38">
-        <v>23.39008512227394</v>
+        <v>33.81505287540225</v>
       </c>
       <c r="E38">
-        <v>30.59556778581088</v>
+        <v>45.01572065220365</v>
       </c>
       <c r="F38">
-        <v>4.522853027267143</v>
+        <v>5.973870380922546</v>
       </c>
       <c r="G38">
-        <v>34.88326905852487</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="H38">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>1135.268297076834</v>
+        <v>441.6237103747127</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>743.0765154569166</v>
+        <v>215.0702442768869</v>
       </c>
       <c r="C39">
-        <v>3.140921355299045</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D39">
-        <v>11.26189283665042</v>
+        <v>16.28132175482329</v>
       </c>
       <c r="E39">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F39">
-        <v>3.230609305190815</v>
+        <v>4.267050272087532</v>
       </c>
       <c r="G39">
-        <v>20.51957003442639</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="H39">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I39">
-        <v>796.3844620712533</v>
+        <v>292.5408677001981</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>437.70260499517</v>
+        <v>126.6852123822759</v>
       </c>
       <c r="C40">
-        <v>3.589624406056052</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D40">
-        <v>12.12819228562353</v>
+        <v>17.53373112057893</v>
       </c>
       <c r="E40">
-        <v>5.827727197297309</v>
+        <v>8.574422981372125</v>
       </c>
       <c r="F40">
-        <v>2.584487444152651</v>
+        <v>3.413640217670024</v>
       </c>
       <c r="G40">
-        <v>28.72739804819696</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="I40">
-        <v>490.5600343764964</v>
+        <v>203.4930325503526</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>337.7620524804163</v>
+        <v>97.75920194403956</v>
       </c>
       <c r="C41">
-        <v>3.739192089641721</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D41">
-        <v>4.331497244865547</v>
+        <v>6.262046828778192</v>
       </c>
       <c r="E41">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F41">
-        <v>2.046052559954184</v>
+        <v>2.702465172322103</v>
       </c>
       <c r="G41">
-        <v>34.88326905852487</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="I41">
-        <v>385.6759270320514</v>
+        <v>167.517989035116</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>219.3139902407088</v>
+        <v>63.47652290612979</v>
       </c>
       <c r="C42">
-        <v>4.187895140398728</v>
+        <v>6.16171332660607</v>
       </c>
       <c r="D42">
-        <v>6.930395591784873</v>
+        <v>10.01927492604511</v>
       </c>
       <c r="E42">
-        <v>3.642329498310818</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F42">
-        <v>2.153739536793876</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G42">
-        <v>30.77935505163959</v>
+        <v>45.00488280299277</v>
       </c>
       <c r="I42">
-        <v>267.0077050596366</v>
+        <v>132.866108506523</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>153.6123307171209</v>
+        <v>44.46034937728924</v>
       </c>
       <c r="C43">
-        <v>4.636598191155734</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D43">
-        <v>12.99449173459664</v>
+        <v>18.78614048633457</v>
       </c>
       <c r="E43">
-        <v>1.456931799324327</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F43">
-        <v>1.722991629435102</v>
+        <v>2.275760145113351</v>
       </c>
       <c r="G43">
-        <v>20.51957003442639</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="H43">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I43">
-        <v>195.6237697356761</v>
+        <v>105.4927610171771</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>170.2690894695798</v>
+        <v>49.28135111699528</v>
       </c>
       <c r="C44">
-        <v>4.636598191155734</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D44">
-        <v>8.662994489731094</v>
+        <v>12.52409365755638</v>
       </c>
       <c r="E44">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F44">
-        <v>2.369113490473265</v>
+        <v>3.129170199530857</v>
       </c>
       <c r="G44">
-        <v>12.31174202065584</v>
+        <v>18.0019531211971</v>
       </c>
       <c r="I44">
-        <v>201.1634012602443</v>
+        <v>94.04567648327955</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>229.4931205894337</v>
+        <v>66.42269063595019</v>
       </c>
       <c r="C45">
-        <v>1.495676835856689</v>
+        <v>2.200611902359311</v>
       </c>
       <c r="D45">
-        <v>16.45968953048909</v>
+        <v>23.79577794935713</v>
       </c>
       <c r="E45">
-        <v>4.370795397972984</v>
+        <v>6.430817236029091</v>
       </c>
       <c r="F45">
-        <v>3.984418143068672</v>
+        <v>5.26269533557462</v>
       </c>
       <c r="G45">
-        <v>26.67544104475432</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H45">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I45">
-        <v>285.2025640600436</v>
+        <v>147.1238374770154</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>533.0162800786845</v>
+        <v>154.2720556705939</v>
       </c>
       <c r="C46">
-        <v>1.196541468685351</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D46">
-        <v>25.98898346919328</v>
+        <v>37.57228097266914</v>
       </c>
       <c r="E46">
-        <v>21.85397698986491</v>
+        <v>32.15408618014546</v>
       </c>
       <c r="F46">
-        <v>12.2763153597251</v>
+        <v>16.21479103393262</v>
       </c>
       <c r="G46">
-        <v>90.28610815147616</v>
+        <v>132.0143228887787</v>
       </c>
       <c r="H46">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I46">
-        <v>685.9799167768634</v>
+        <v>375.991532595583</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1013.286157441249</v>
+        <v>293.2776058321188</v>
       </c>
       <c r="C47">
-        <v>2.54265062095637</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D47">
-        <v>44.18127189762859</v>
+        <v>63.87287765353756</v>
       </c>
       <c r="E47">
-        <v>63.37653327060823</v>
+        <v>93.24684992242183</v>
       </c>
       <c r="F47">
-        <v>18.09141210906857</v>
+        <v>23.89548152369018</v>
       </c>
       <c r="G47">
-        <v>127.2213342134437</v>
+        <v>186.02018225237</v>
       </c>
       <c r="H47">
-        <v>7.48941192578747</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I47">
-        <v>1276.188771478742</v>
+        <v>675.0733222198154</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1457.466390840154</v>
+        <v>421.8376522242806</v>
       </c>
       <c r="C48">
-        <v>3.888759773227389</v>
+        <v>5.721590946134209</v>
       </c>
       <c r="D48">
-        <v>46.78017024454789</v>
+        <v>67.6301057508045</v>
       </c>
       <c r="E48">
-        <v>69.20426046790556</v>
+        <v>101.821272903794</v>
       </c>
       <c r="F48">
-        <v>19.06059490062582</v>
+        <v>25.17559660531643</v>
       </c>
       <c r="G48">
-        <v>162.1046032719686</v>
+        <v>237.0257160957618</v>
       </c>
       <c r="H48">
-        <v>11.57454570348973</v>
+        <v>17.0298037843931</v>
       </c>
       <c r="I48">
-        <v>1770.079325201918</v>
+        <v>876.2417383104846</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1585.168207942338</v>
+        <v>458.7986655620267</v>
       </c>
       <c r="C49">
-        <v>6.730545761355097</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D49">
-        <v>58.90836253017147</v>
+        <v>85.16383687138341</v>
       </c>
       <c r="E49">
-        <v>32.78096548479736</v>
+        <v>48.23112927021819</v>
       </c>
       <c r="F49">
-        <v>19.49134280798459</v>
+        <v>25.74453664159478</v>
       </c>
       <c r="G49">
-        <v>110.8056781859026</v>
+        <v>162.0175780907739</v>
       </c>
       <c r="H49">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I49">
-        <v>1818.651092119869</v>
+        <v>796.8707721431285</v>
       </c>
     </row>
   </sheetData>
